--- a/Dateieigenschaften.xlsx
+++ b/Dateieigenschaften.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B040821-2ABD-4A05-AA81-03DC557C471D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087C0B31-6B5E-4714-BED6-63B49C24E959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{42933F10-E430-4C85-BB5C-A0778057E4E9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="473">
   <si>
     <t>Chassis_V4.0.asm</t>
   </si>
@@ -1453,9 +1453,6 @@
   </si>
   <si>
     <t xml:space="preserve">Voll </t>
-  </si>
-  <si>
-    <t>Voll bis auf motor.par</t>
   </si>
 </sst>
 </file>
@@ -1818,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31ABC05-1310-40CC-AAF6-8567B020221C}">
   <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P129" sqref="P129"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="K218" sqref="K218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,8 +1879,8 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3229,7 +3226,7 @@
         <v>139</v>
       </c>
       <c r="K48" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3261,7 +3258,7 @@
         <v>463</v>
       </c>
       <c r="K49" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3293,7 +3290,7 @@
         <v>466</v>
       </c>
       <c r="K50" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -4123,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="K78" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -7071,7 +7068,7 @@
         <v>423</v>
       </c>
       <c r="K208" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
@@ -7341,7 +7338,7 @@
         <v>435</v>
       </c>
       <c r="K217" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">

--- a/Dateieigenschaften.xlsx
+++ b/Dateieigenschaften.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087C0B31-6B5E-4714-BED6-63B49C24E959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67375294-2AC1-464D-98C5-BF11F96E1CB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{42933F10-E430-4C85-BB5C-A0778057E4E9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="571">
   <si>
     <t>Chassis_V4.0.asm</t>
   </si>
@@ -1453,13 +1453,307 @@
   </si>
   <si>
     <t xml:space="preserve">Voll </t>
+  </si>
+  <si>
+    <t>Dokumentennummer</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>097</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1471,6 +1765,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1496,9 +1796,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1813,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31ABC05-1310-40CC-AAF6-8567B020221C}">
-  <dimension ref="A1:L222"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="K218" sqref="K218"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M223" sqref="M223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,9 +2131,10 @@
     <col min="9" max="9" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="26.109375" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>446</v>
       </c>
@@ -1865,8 +2168,11 @@
       <c r="L1" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1882,8 +2188,11 @@
       <c r="K2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1914,8 +2223,11 @@
       <c r="K3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1946,8 +2258,11 @@
       <c r="K4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1978,8 +2293,11 @@
       <c r="K5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2010,8 +2328,11 @@
       <c r="K6" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2042,8 +2363,11 @@
       <c r="K7" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2074,8 +2398,11 @@
       <c r="J8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2106,8 +2433,11 @@
       <c r="J9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2138,8 +2468,11 @@
       <c r="J10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2170,8 +2503,11 @@
       <c r="J11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2203,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2235,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2267,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -2298,8 +2634,11 @@
       <c r="K15" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2312,8 +2651,11 @@
       <c r="J16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M16" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2326,8 +2668,11 @@
       <c r="J17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M17" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2340,8 +2685,11 @@
       <c r="J18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M18" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2354,8 +2702,11 @@
       <c r="J19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M19" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2368,8 +2719,11 @@
       <c r="J20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2400,8 +2754,11 @@
       <c r="J21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M21" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2433,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2464,8 +2821,11 @@
       <c r="J23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M23" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2496,8 +2856,11 @@
       <c r="K24" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M24" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -2528,8 +2891,11 @@
       <c r="K25" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M25" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -2560,8 +2926,11 @@
       <c r="K26" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M26" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -2592,8 +2961,11 @@
       <c r="K27" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M27" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -2624,8 +2996,11 @@
       <c r="K28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M28" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -2657,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -2689,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -2721,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -2753,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -2785,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -2817,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -2849,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -2880,8 +3255,11 @@
       <c r="K36" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M36" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -2912,8 +3290,11 @@
       <c r="K37" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M37" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -2944,8 +3325,11 @@
       <c r="K38" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M38" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -2976,8 +3360,11 @@
       <c r="K39" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M39" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -3008,8 +3395,11 @@
       <c r="K40" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M40" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -3022,8 +3412,11 @@
       <c r="J41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M41" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -3036,8 +3429,11 @@
       <c r="J42" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M42" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -3068,8 +3464,11 @@
       <c r="K43" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M43" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -3100,8 +3499,11 @@
       <c r="K44" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M44" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -3132,8 +3534,11 @@
       <c r="K45" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M45" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -3165,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -3197,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -3228,8 +3633,11 @@
       <c r="K48" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M48" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>140</v>
       </c>
@@ -3260,8 +3668,11 @@
       <c r="K49" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M49" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -3292,8 +3703,11 @@
       <c r="K50" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M50" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -3324,8 +3738,11 @@
       <c r="K51" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M51" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -3356,8 +3773,11 @@
       <c r="K52" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M52" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -3388,8 +3808,11 @@
       <c r="K53" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M53" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -3420,8 +3843,11 @@
       <c r="K54" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M54" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>155</v>
       </c>
@@ -3452,8 +3878,11 @@
       <c r="K55" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M55" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>159</v>
       </c>
@@ -3485,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -3517,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -3549,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -3581,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -3613,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>170</v>
       </c>
@@ -3645,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>172</v>
       </c>
@@ -3677,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>174</v>
       </c>
@@ -3709,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>176</v>
       </c>
@@ -3741,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>178</v>
       </c>
@@ -3773,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>180</v>
       </c>
@@ -3787,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>181</v>
       </c>
@@ -3804,7 +4233,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -3818,7 +4247,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>183</v>
       </c>
@@ -3850,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>185</v>
       </c>
@@ -3881,8 +4310,11 @@
       <c r="J70" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>187</v>
       </c>
@@ -3914,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>191</v>
       </c>
@@ -3945,8 +4377,11 @@
       <c r="K72" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>193</v>
       </c>
@@ -3977,8 +4412,11 @@
       <c r="K73" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>195</v>
       </c>
@@ -4009,8 +4447,11 @@
       <c r="J74" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>200</v>
       </c>
@@ -4042,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>202</v>
       </c>
@@ -4073,8 +4514,11 @@
       <c r="J76" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>206</v>
       </c>
@@ -4105,8 +4549,11 @@
       <c r="J77" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>209</v>
       </c>
@@ -4122,8 +4569,11 @@
       <c r="K78" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>210</v>
       </c>
@@ -4154,8 +4604,11 @@
       <c r="K79" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>214</v>
       </c>
@@ -4940,7 +5393,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>264</v>
       </c>
@@ -4954,7 +5407,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>265</v>
       </c>
@@ -4968,7 +5421,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>266</v>
       </c>
@@ -4982,7 +5435,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>267</v>
       </c>
@@ -4999,7 +5452,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>268</v>
       </c>
@@ -5016,7 +5469,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>269</v>
       </c>
@@ -5030,7 +5483,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>270</v>
       </c>
@@ -5044,7 +5497,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>271</v>
       </c>
@@ -5075,8 +5528,11 @@
       <c r="J136" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -5093,7 +5549,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -5107,7 +5563,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>275</v>
       </c>
@@ -5123,8 +5579,11 @@
       <c r="K139" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M139" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -5155,8 +5614,11 @@
       <c r="K140" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M140" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>279</v>
       </c>
@@ -5169,8 +5631,11 @@
       <c r="K141" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M141" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -5202,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -5233,8 +5698,11 @@
       <c r="K143" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M143" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -5265,8 +5733,11 @@
       <c r="K144" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M144" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>290</v>
       </c>
@@ -5298,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>292</v>
       </c>
@@ -5330,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>294</v>
       </c>
@@ -5362,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>295</v>
       </c>
@@ -5376,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -5407,8 +5878,11 @@
       <c r="K149" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M149" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -5440,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -5472,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>294</v>
       </c>
@@ -5504,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -5536,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -5567,8 +6041,11 @@
       <c r="K154" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M154" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -5581,8 +6058,11 @@
       <c r="J155" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M155" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>307</v>
       </c>
@@ -5613,8 +6093,11 @@
       <c r="K156" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M156" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>309</v>
       </c>
@@ -5646,7 +6129,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>313</v>
       </c>
@@ -5678,7 +6161,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>315</v>
       </c>
@@ -5710,7 +6193,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>319</v>
       </c>
@@ -5742,7 +6225,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>323</v>
       </c>
@@ -5756,7 +6239,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>324</v>
       </c>
@@ -5788,7 +6271,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>328</v>
       </c>
@@ -5805,7 +6288,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>329</v>
       </c>
@@ -5819,7 +6302,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>330</v>
       </c>
@@ -5833,7 +6316,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>331</v>
       </c>
@@ -5865,7 +6348,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>335</v>
       </c>
@@ -5878,8 +6361,11 @@
       <c r="J167" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M167" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>336</v>
       </c>
@@ -5910,8 +6396,11 @@
       <c r="J168" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M168" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>339</v>
       </c>
@@ -5943,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>341</v>
       </c>
@@ -5974,8 +6463,11 @@
       <c r="J170" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M170" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>343</v>
       </c>
@@ -5991,8 +6483,11 @@
       <c r="J171" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M171" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>344</v>
       </c>
@@ -6023,8 +6518,11 @@
       <c r="J172" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M172" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>347</v>
       </c>
@@ -6055,8 +6553,11 @@
       <c r="J173" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M173" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>351</v>
       </c>
@@ -6087,8 +6588,11 @@
       <c r="J174" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M174" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>354</v>
       </c>
@@ -6120,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>356</v>
       </c>
@@ -6151,8 +6655,11 @@
       <c r="J176" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M176" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>358</v>
       </c>
@@ -6165,8 +6672,11 @@
       <c r="J177" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M177" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>359</v>
       </c>
@@ -6198,7 +6708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>361</v>
       </c>
@@ -6212,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>362</v>
       </c>
@@ -6243,8 +6753,11 @@
       <c r="J180" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M180" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>365</v>
       </c>
@@ -6276,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>366</v>
       </c>
@@ -6307,8 +6820,11 @@
       <c r="K182" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M182" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>370</v>
       </c>
@@ -6339,8 +6855,11 @@
       <c r="J183" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M183" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>373</v>
       </c>
@@ -6371,8 +6890,11 @@
       <c r="J184" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M184" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -6403,8 +6925,11 @@
       <c r="J185" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M185" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>380</v>
       </c>
@@ -6435,8 +6960,11 @@
       <c r="J186" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M186" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>383</v>
       </c>
@@ -6467,8 +6995,11 @@
       <c r="J187" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M187" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>386</v>
       </c>
@@ -6500,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>302</v>
       </c>
@@ -6532,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>388</v>
       </c>
@@ -6564,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>390</v>
       </c>
@@ -6596,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>392</v>
       </c>
@@ -6609,8 +7140,11 @@
       <c r="J192" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M192" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>393</v>
       </c>
@@ -6623,8 +7157,11 @@
       <c r="J193" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M193" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>394</v>
       </c>
@@ -6637,8 +7174,11 @@
       <c r="J194" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M194" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>395</v>
       </c>
@@ -6670,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>397</v>
       </c>
@@ -6702,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>399</v>
       </c>
@@ -6733,8 +7273,11 @@
       <c r="J197" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M197" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>402</v>
       </c>
@@ -6765,8 +7308,11 @@
       <c r="J198" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M198" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>405</v>
       </c>
@@ -6797,8 +7343,11 @@
       <c r="J199" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M199" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>407</v>
       </c>
@@ -6814,8 +7363,11 @@
       <c r="J200" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M200" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>55</v>
       </c>
@@ -6846,8 +7398,11 @@
       <c r="K201" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M201" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>409</v>
       </c>
@@ -6879,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>411</v>
       </c>
@@ -6910,8 +7465,11 @@
       <c r="K203" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M203" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>61</v>
       </c>
@@ -6942,8 +7500,11 @@
       <c r="J204" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M204" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>416</v>
       </c>
@@ -6974,8 +7535,11 @@
       <c r="K205" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M205" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>418</v>
       </c>
@@ -7006,8 +7570,11 @@
       <c r="K206" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M206" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>420</v>
       </c>
@@ -7038,8 +7605,11 @@
       <c r="K207" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M207" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>422</v>
       </c>
@@ -7070,8 +7640,11 @@
       <c r="K208" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M208" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>424</v>
       </c>
@@ -7102,8 +7675,11 @@
       <c r="K209" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M209" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>426</v>
       </c>
@@ -7116,8 +7692,11 @@
       <c r="K210" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M210" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>159</v>
       </c>
@@ -7149,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>427</v>
       </c>
@@ -7181,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>429</v>
       </c>
@@ -7213,7 +7792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>431</v>
       </c>
@@ -7245,7 +7824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>433</v>
       </c>
@@ -7277,7 +7856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>176</v>
       </c>
@@ -7309,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>434</v>
       </c>
@@ -7340,8 +7919,11 @@
       <c r="K217" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M217" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>436</v>
       </c>
@@ -7372,8 +7954,11 @@
       <c r="K218" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M218" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>438</v>
       </c>
@@ -7404,8 +7989,11 @@
       <c r="K219" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M219" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>440</v>
       </c>
@@ -7436,8 +8024,11 @@
       <c r="K220" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M220" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>442</v>
       </c>
@@ -7468,8 +8059,11 @@
       <c r="K221" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M221" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>444</v>
       </c>
@@ -7500,8 +8094,12 @@
       <c r="K222" t="s">
         <v>456</v>
       </c>
+      <c r="M222" s="3" t="s">
+        <v>570</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Dateieigenschaften.xlsx
+++ b/Dateieigenschaften.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67375294-2AC1-464D-98C5-BF11F96E1CB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE515073-32D1-495A-9A60-5715678D6563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{42933F10-E430-4C85-BB5C-A0778057E4E9}"/>
   </bookViews>
@@ -1776,12 +1776,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1796,11 +1802,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2117,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31ABC05-1310-40CC-AAF6-8567B020221C}">
   <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M223" sqref="M223"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C200" sqref="C199:C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7540,7 +7547,7 @@
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="A206" s="4" t="s">
         <v>418</v>
       </c>
       <c r="B206" t="s">
@@ -7924,7 +7931,7 @@
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="A218" s="4" t="s">
         <v>436</v>
       </c>
       <c r="B218" t="s">

--- a/Dateieigenschaften.xlsx
+++ b/Dateieigenschaften.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE515073-32D1-495A-9A60-5715678D6563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FD24BE-040B-4E1A-BB4D-FBDB0F5FA984}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{42933F10-E430-4C85-BB5C-A0778057E4E9}"/>
+    <workbookView minimized="1" xWindow="4668" yWindow="4596" windowWidth="17280" windowHeight="9216" xr2:uid="{42933F10-E430-4C85-BB5C-A0778057E4E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="572">
   <si>
     <t>Chassis_V4.0.asm</t>
   </si>
@@ -1747,6 +1747,9 @@
   </si>
   <si>
     <t>097</t>
+  </si>
+  <si>
+    <t>NylonX</t>
   </si>
 </sst>
 </file>
@@ -2124,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31ABC05-1310-40CC-AAF6-8567B020221C}">
   <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C200" sqref="C199:C200"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7903,7 +7906,7 @@
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>70</v>
+        <v>571</v>
       </c>
       <c r="D217" t="s">
         <v>71</v>

--- a/Dateieigenschaften.xlsx
+++ b/Dateieigenschaften.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FD24BE-040B-4E1A-BB4D-FBDB0F5FA984}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A19E2-ABB9-4620-81A6-0AF012D039DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4668" yWindow="4596" windowWidth="17280" windowHeight="9216" xr2:uid="{42933F10-E430-4C85-BB5C-A0778057E4E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{42933F10-E430-4C85-BB5C-A0778057E4E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -948,9 +948,6 @@
     <t>143,92 mm^2</t>
   </si>
   <si>
-    <t>Servo-Arm.par</t>
-  </si>
-  <si>
     <t>828,89 mm^2</t>
   </si>
   <si>
@@ -1750,6 +1747,9 @@
   </si>
   <si>
     <t>NylonX</t>
+  </si>
+  <si>
+    <t>Servo-Arm-Winkel.par</t>
   </si>
 </sst>
 </file>
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31ABC05-1310-40CC-AAF6-8567B020221C}">
   <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="M154" sqref="M154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2146,40 +2146,40 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2231,10 +2231,10 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2266,10 +2266,10 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2301,10 +2301,10 @@
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2336,10 +2336,10 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2371,10 +2371,10 @@
         <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2409,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2473,13 +2473,13 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J10" t="s">
         <v>1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2514,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2642,10 +2642,10 @@
         <v>57</v>
       </c>
       <c r="K15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2864,10 +2864,10 @@
         <v>74</v>
       </c>
       <c r="K24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2899,10 +2899,10 @@
         <v>78</v>
       </c>
       <c r="K25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2934,10 +2934,10 @@
         <v>81</v>
       </c>
       <c r="K26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2969,10 +2969,10 @@
         <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -3001,13 +3001,13 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -3263,10 +3263,10 @@
         <v>102</v>
       </c>
       <c r="K36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -3298,10 +3298,10 @@
         <v>106</v>
       </c>
       <c r="K37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -3333,10 +3333,10 @@
         <v>110</v>
       </c>
       <c r="K38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -3368,10 +3368,10 @@
         <v>114</v>
       </c>
       <c r="K39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -3403,10 +3403,10 @@
         <v>118</v>
       </c>
       <c r="K40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -3472,10 +3472,10 @@
         <v>124</v>
       </c>
       <c r="K43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -3507,10 +3507,10 @@
         <v>130</v>
       </c>
       <c r="K44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -3542,10 +3542,10 @@
         <v>130</v>
       </c>
       <c r="K45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -3641,10 +3641,10 @@
         <v>139</v>
       </c>
       <c r="K48" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -3664,22 +3664,22 @@
         <v>0.99</v>
       </c>
       <c r="F49" t="s">
+        <v>460</v>
+      </c>
+      <c r="G49" t="s">
         <v>461</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
         <v>462</v>
       </c>
-      <c r="H49" t="s">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>463</v>
-      </c>
       <c r="K49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -3699,22 +3699,22 @@
         <v>0.99</v>
       </c>
       <c r="F50" t="s">
+        <v>463</v>
+      </c>
+      <c r="G50" t="s">
         <v>464</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
         <v>465</v>
       </c>
-      <c r="H50" t="s">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>466</v>
-      </c>
       <c r="K50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -3743,13 +3743,13 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -3781,10 +3781,10 @@
         <v>146</v>
       </c>
       <c r="K52" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -3816,10 +3816,10 @@
         <v>150</v>
       </c>
       <c r="K53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -3851,10 +3851,10 @@
         <v>154</v>
       </c>
       <c r="K54" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -3886,10 +3886,10 @@
         <v>158</v>
       </c>
       <c r="K55" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -4240,7 +4240,7 @@
         <v>3</v>
       </c>
       <c r="L67" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -4254,7 +4254,7 @@
         <v>0.99</v>
       </c>
       <c r="L68" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -4385,10 +4385,10 @@
         <v>192</v>
       </c>
       <c r="K72" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -4420,10 +4420,10 @@
         <v>194</v>
       </c>
       <c r="K73" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -4525,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -4577,10 +4577,10 @@
         <v>3</v>
       </c>
       <c r="K78" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -4612,10 +4612,10 @@
         <v>213</v>
       </c>
       <c r="K79" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -4739,7 +4739,7 @@
         <v>0.99</v>
       </c>
       <c r="L84" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -4753,7 +4753,7 @@
         <v>0.99</v>
       </c>
       <c r="L85" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -4767,7 +4767,7 @@
         <v>0.99</v>
       </c>
       <c r="L86" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -4781,7 +4781,7 @@
         <v>0.99</v>
       </c>
       <c r="L87" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -4795,7 +4795,7 @@
         <v>0.99</v>
       </c>
       <c r="L88" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -4809,7 +4809,7 @@
         <v>0.99</v>
       </c>
       <c r="L89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -4823,7 +4823,7 @@
         <v>0.99</v>
       </c>
       <c r="L90" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -4837,7 +4837,7 @@
         <v>0.99</v>
       </c>
       <c r="L91" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -4851,7 +4851,7 @@
         <v>0.99</v>
       </c>
       <c r="L92" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -4865,7 +4865,7 @@
         <v>0.99</v>
       </c>
       <c r="L93" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -4879,7 +4879,7 @@
         <v>0.99</v>
       </c>
       <c r="L94" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -4893,7 +4893,7 @@
         <v>0.99</v>
       </c>
       <c r="L95" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4907,7 +4907,7 @@
         <v>0.99</v>
       </c>
       <c r="L96" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4921,7 +4921,7 @@
         <v>0.99</v>
       </c>
       <c r="L97" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4935,7 +4935,7 @@
         <v>0.99</v>
       </c>
       <c r="L98" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4949,7 +4949,7 @@
         <v>0.99</v>
       </c>
       <c r="L99" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4963,7 +4963,7 @@
         <v>0.99</v>
       </c>
       <c r="L100" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4977,7 +4977,7 @@
         <v>0.99</v>
       </c>
       <c r="L101" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4994,7 +4994,7 @@
         <v>3</v>
       </c>
       <c r="L102" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -5072,7 +5072,7 @@
         <v>0.99</v>
       </c>
       <c r="L105" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -5086,7 +5086,7 @@
         <v>0.99</v>
       </c>
       <c r="L106" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -5100,7 +5100,7 @@
         <v>0.99</v>
       </c>
       <c r="L107" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -5114,7 +5114,7 @@
         <v>0.99</v>
       </c>
       <c r="L108" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -5128,7 +5128,7 @@
         <v>0.99</v>
       </c>
       <c r="L109" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -5142,7 +5142,7 @@
         <v>0.99</v>
       </c>
       <c r="L110" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -5156,7 +5156,7 @@
         <v>0.99</v>
       </c>
       <c r="L111" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -5173,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="L112" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -5187,7 +5187,7 @@
         <v>0.99</v>
       </c>
       <c r="L113" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -5201,7 +5201,7 @@
         <v>0.99</v>
       </c>
       <c r="L114" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -5215,7 +5215,7 @@
         <v>0.99</v>
       </c>
       <c r="L115" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -5229,7 +5229,7 @@
         <v>0.99</v>
       </c>
       <c r="L116" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -5243,7 +5243,7 @@
         <v>0.99</v>
       </c>
       <c r="L117" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -5257,7 +5257,7 @@
         <v>0.99</v>
       </c>
       <c r="L118" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -5271,7 +5271,7 @@
         <v>0.99</v>
       </c>
       <c r="L119" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5285,7 +5285,7 @@
         <v>0.99</v>
       </c>
       <c r="L120" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -5299,7 +5299,7 @@
         <v>0.99</v>
       </c>
       <c r="L121" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5313,7 +5313,7 @@
         <v>0.99</v>
       </c>
       <c r="L122" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5327,7 +5327,7 @@
         <v>0.99</v>
       </c>
       <c r="L123" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5341,7 +5341,7 @@
         <v>0.99</v>
       </c>
       <c r="L124" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5355,7 +5355,7 @@
         <v>0.99</v>
       </c>
       <c r="L125" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5369,7 +5369,7 @@
         <v>0.99</v>
       </c>
       <c r="L126" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5383,7 +5383,7 @@
         <v>0.99</v>
       </c>
       <c r="L127" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="L128" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
@@ -5414,7 +5414,7 @@
         <v>0.99</v>
       </c>
       <c r="L129" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
@@ -5428,7 +5428,7 @@
         <v>0.99</v>
       </c>
       <c r="L130" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
@@ -5442,7 +5442,7 @@
         <v>0.99</v>
       </c>
       <c r="L131" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
@@ -5459,7 +5459,7 @@
         <v>3</v>
       </c>
       <c r="L132" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -5476,7 +5476,7 @@
         <v>3</v>
       </c>
       <c r="L133" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
@@ -5490,7 +5490,7 @@
         <v>0.99</v>
       </c>
       <c r="L134" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -5504,7 +5504,7 @@
         <v>0.99</v>
       </c>
       <c r="L135" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -5539,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -5556,7 +5556,7 @@
         <v>3</v>
       </c>
       <c r="L137" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
@@ -5570,7 +5570,7 @@
         <v>0.99</v>
       </c>
       <c r="L138" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -5587,10 +5587,10 @@
         <v>3</v>
       </c>
       <c r="K139" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -5622,10 +5622,10 @@
         <v>278</v>
       </c>
       <c r="K140" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
@@ -5639,10 +5639,10 @@
         <v>0.99</v>
       </c>
       <c r="K141" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
@@ -5706,10 +5706,10 @@
         <v>286</v>
       </c>
       <c r="K143" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
@@ -5741,10 +5741,10 @@
         <v>289</v>
       </c>
       <c r="K144" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -5886,10 +5886,10 @@
         <v>297</v>
       </c>
       <c r="K149" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
@@ -6022,7 +6022,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>571</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -6046,18 +6046,18 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K154" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C155" t="s">
         <v>38</v>
@@ -6069,12 +6069,12 @@
         <v>1</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -6098,27 +6098,27 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K156" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
         <v>309</v>
       </c>
-      <c r="B157" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>310</v>
-      </c>
-      <c r="D157" t="s">
-        <v>311</v>
       </c>
       <c r="E157">
         <v>0.99</v>
@@ -6133,24 +6133,24 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L157" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158" t="s">
+        <v>309</v>
+      </c>
+      <c r="D158" t="s">
         <v>310</v>
-      </c>
-      <c r="D158" t="s">
-        <v>311</v>
       </c>
       <c r="E158">
         <v>0.99</v>
@@ -6165,24 +6165,24 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L158" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
         <v>315</v>
       </c>
-      <c r="B159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>316</v>
-      </c>
-      <c r="D159" t="s">
-        <v>317</v>
       </c>
       <c r="E159">
         <v>0.99</v>
@@ -6197,24 +6197,24 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L159" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
         <v>319</v>
       </c>
-      <c r="B160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>320</v>
-      </c>
-      <c r="D160" t="s">
-        <v>321</v>
       </c>
       <c r="E160">
         <v>0.99</v>
@@ -6229,15 +6229,15 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L160" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C161" t="s">
         <v>38</v>
@@ -6246,21 +6246,21 @@
         <v>0.99</v>
       </c>
       <c r="L161" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>323</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
         <v>324</v>
       </c>
-      <c r="B162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>325</v>
-      </c>
-      <c r="D162" t="s">
-        <v>326</v>
       </c>
       <c r="E162">
         <v>0.99</v>
@@ -6275,15 +6275,15 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L162" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B163" t="s">
         <v>1</v>
@@ -6295,12 +6295,12 @@
         <v>3</v>
       </c>
       <c r="L163" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C164" t="s">
         <v>38</v>
@@ -6309,12 +6309,12 @@
         <v>0.99</v>
       </c>
       <c r="L164" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C165" t="s">
         <v>38</v>
@@ -6323,12 +6323,12 @@
         <v>0.99</v>
       </c>
       <c r="L165" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -6343,24 +6343,24 @@
         <v>0.99</v>
       </c>
       <c r="F166" t="s">
+        <v>331</v>
+      </c>
+      <c r="G166" t="s">
         <v>332</v>
       </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
         <v>333</v>
       </c>
-      <c r="H166" t="s">
-        <v>1</v>
-      </c>
-      <c r="I166" t="s">
-        <v>334</v>
-      </c>
       <c r="L166" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C167" t="s">
         <v>38</v>
@@ -6372,12 +6372,12 @@
         <v>1</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -6392,7 +6392,7 @@
         <v>0.99</v>
       </c>
       <c r="F168" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G168" t="s">
         <v>41</v>
@@ -6401,18 +6401,18 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J168" t="s">
         <v>1</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -6436,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J169" t="s">
         <v>1</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -6468,18 +6468,18 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J170" t="s">
         <v>1</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B171" t="s">
         <v>1</v>
@@ -6494,18 +6494,18 @@
         <v>1</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>343</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
         <v>344</v>
-      </c>
-      <c r="B172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" t="s">
-        <v>345</v>
       </c>
       <c r="D172" t="s">
         <v>282</v>
@@ -6523,18 +6523,18 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J172" t="s">
         <v>1</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -6549,27 +6549,27 @@
         <v>0.99</v>
       </c>
       <c r="F173" t="s">
+        <v>347</v>
+      </c>
+      <c r="G173" t="s">
         <v>348</v>
       </c>
-      <c r="G173" t="s">
+      <c r="H173" t="s">
+        <v>1</v>
+      </c>
+      <c r="I173" t="s">
         <v>349</v>
       </c>
-      <c r="H173" t="s">
-        <v>1</v>
-      </c>
-      <c r="I173" t="s">
-        <v>350</v>
-      </c>
       <c r="J173" t="s">
         <v>1</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -6584,7 +6584,7 @@
         <v>0.99</v>
       </c>
       <c r="F174" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G174" t="s">
         <v>31</v>
@@ -6593,18 +6593,18 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J174" t="s">
         <v>1</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -6628,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J175" t="s">
         <v>1</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -6660,18 +6660,18 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J176" t="s">
         <v>1</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C177" t="s">
         <v>38</v>
@@ -6683,12 +6683,12 @@
         <v>1</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J178" t="s">
         <v>1</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C179" t="s">
         <v>38</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -6749,27 +6749,27 @@
         <v>0.99</v>
       </c>
       <c r="F180" t="s">
+        <v>362</v>
+      </c>
+      <c r="G180" t="s">
+        <v>348</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1</v>
+      </c>
+      <c r="I180" t="s">
         <v>363</v>
       </c>
-      <c r="G180" t="s">
-        <v>349</v>
-      </c>
-      <c r="H180" t="s">
-        <v>1</v>
-      </c>
-      <c r="I180" t="s">
-        <v>364</v>
-      </c>
       <c r="J180" t="s">
         <v>1</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -6816,27 +6816,27 @@
         <v>0.99</v>
       </c>
       <c r="F182" t="s">
+        <v>366</v>
+      </c>
+      <c r="G182" t="s">
         <v>367</v>
       </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
+        <v>1</v>
+      </c>
+      <c r="I182" t="s">
         <v>368</v>
       </c>
-      <c r="H182" t="s">
-        <v>1</v>
-      </c>
-      <c r="I182" t="s">
-        <v>369</v>
-      </c>
       <c r="K182" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -6851,7 +6851,7 @@
         <v>0.99</v>
       </c>
       <c r="F183" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G183" t="s">
         <v>277</v>
@@ -6860,18 +6860,18 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J183" t="s">
         <v>1</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B184" t="s">
         <v>1</v>
@@ -6886,27 +6886,27 @@
         <v>0.99</v>
       </c>
       <c r="F184" t="s">
+        <v>373</v>
+      </c>
+      <c r="G184" t="s">
+        <v>348</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1</v>
+      </c>
+      <c r="I184" t="s">
         <v>374</v>
       </c>
-      <c r="G184" t="s">
-        <v>349</v>
-      </c>
-      <c r="H184" t="s">
-        <v>1</v>
-      </c>
-      <c r="I184" t="s">
-        <v>375</v>
-      </c>
       <c r="J184" t="s">
         <v>1</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B185" t="s">
         <v>1</v>
@@ -6921,27 +6921,27 @@
         <v>0.99</v>
       </c>
       <c r="F185" t="s">
+        <v>376</v>
+      </c>
+      <c r="G185" t="s">
         <v>377</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
+        <v>1</v>
+      </c>
+      <c r="I185" t="s">
         <v>378</v>
       </c>
-      <c r="H185" t="s">
-        <v>1</v>
-      </c>
-      <c r="I185" t="s">
-        <v>379</v>
-      </c>
       <c r="J185" t="s">
         <v>1</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B186" t="s">
         <v>1</v>
@@ -6956,7 +6956,7 @@
         <v>0.99</v>
       </c>
       <c r="F186" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G186" t="s">
         <v>277</v>
@@ -6965,18 +6965,18 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J186" t="s">
         <v>1</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B187" t="s">
         <v>1</v>
@@ -6991,27 +6991,27 @@
         <v>0.99</v>
       </c>
       <c r="F187" t="s">
+        <v>383</v>
+      </c>
+      <c r="G187" t="s">
+        <v>332</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1</v>
+      </c>
+      <c r="I187" t="s">
         <v>384</v>
       </c>
-      <c r="G187" t="s">
-        <v>333</v>
-      </c>
-      <c r="H187" t="s">
-        <v>1</v>
-      </c>
-      <c r="I187" t="s">
-        <v>385</v>
-      </c>
       <c r="J187" t="s">
         <v>1</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -7035,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J188" t="s">
         <v>1</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -7099,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J190" t="s">
         <v>1</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J191" t="s">
         <v>1</v>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C192" t="s">
         <v>38</v>
@@ -7151,12 +7151,12 @@
         <v>1</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C193" t="s">
         <v>38</v>
@@ -7168,12 +7168,12 @@
         <v>1</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C194" t="s">
         <v>38</v>
@@ -7185,12 +7185,12 @@
         <v>1</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -7214,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J195" t="s">
         <v>1</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -7246,7 +7246,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J196" t="s">
         <v>1</v>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -7269,7 +7269,7 @@
         <v>0.99</v>
       </c>
       <c r="F197" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G197" t="s">
         <v>41</v>
@@ -7278,18 +7278,18 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J197" t="s">
         <v>1</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -7304,7 +7304,7 @@
         <v>0.99</v>
       </c>
       <c r="F198" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G198" t="s">
         <v>109</v>
@@ -7313,18 +7313,18 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J198" t="s">
         <v>1</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -7339,7 +7339,7 @@
         <v>0.99</v>
       </c>
       <c r="F199" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G199" t="s">
         <v>277</v>
@@ -7348,18 +7348,18 @@
         <v>1</v>
       </c>
       <c r="I199" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J199" t="s">
         <v>1</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B200" t="s">
         <v>1</v>
@@ -7374,7 +7374,7 @@
         <v>1</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -7403,18 +7403,18 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K201" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -7438,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J202" t="s">
         <v>1</v>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -7470,13 +7470,13 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K203" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
@@ -7487,10 +7487,10 @@
         <v>5</v>
       </c>
       <c r="C204" t="s">
+        <v>412</v>
+      </c>
+      <c r="D204" t="s">
         <v>413</v>
-      </c>
-      <c r="D204" t="s">
-        <v>414</v>
       </c>
       <c r="E204">
         <v>0.99</v>
@@ -7505,18 +7505,18 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J204" t="s">
         <v>1</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -7531,7 +7531,7 @@
         <v>0.99</v>
       </c>
       <c r="F205" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G205" t="s">
         <v>31</v>
@@ -7540,18 +7540,18 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K205" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -7566,7 +7566,7 @@
         <v>0.99</v>
       </c>
       <c r="F206" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G206" t="s">
         <v>109</v>
@@ -7575,18 +7575,18 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K206" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -7610,18 +7610,18 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K207" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -7645,18 +7645,18 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K208" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -7680,18 +7680,18 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K209" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C210" t="s">
         <v>38</v>
@@ -7700,10 +7700,10 @@
         <v>0.99</v>
       </c>
       <c r="K210" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
@@ -7740,7 +7740,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -7764,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J212" t="s">
         <v>1</v>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -7796,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J213" t="s">
         <v>1</v>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -7828,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J214" t="s">
         <v>1</v>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -7900,13 +7900,13 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D217" t="s">
         <v>71</v>
@@ -7924,18 +7924,18 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K217" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -7959,18 +7959,18 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K218" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -7994,18 +7994,18 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K219" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -8020,7 +8020,7 @@
         <v>0.99</v>
       </c>
       <c r="F220" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G220" t="s">
         <v>31</v>
@@ -8029,18 +8029,18 @@
         <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K220" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -8064,18 +8064,18 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K221" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -8099,13 +8099,13 @@
         <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K222" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/Dateieigenschaften.xlsx
+++ b/Dateieigenschaften.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A19E2-ABB9-4620-81A6-0AF012D039DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70C9004-79B2-43CE-B01A-85925DFA7FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{42933F10-E430-4C85-BB5C-A0778057E4E9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="691">
   <si>
     <t>Chassis_V4.0.asm</t>
   </si>
@@ -51,9 +51,6 @@
     <t>A-Arm_oben.par</t>
   </si>
   <si>
-    <t>Ja</t>
-  </si>
-  <si>
     <t>Aluminiumlegierung:3.0205, Al 99.0, EN-AW 1200</t>
   </si>
   <si>
@@ -1374,9 +1371,6 @@
     <t>Dateiname</t>
   </si>
   <si>
-    <t>Aktualisiert</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -1392,9 +1386,6 @@
     <t>Volumen</t>
   </si>
   <si>
-    <t>Benuterdefiniert</t>
-  </si>
-  <si>
     <t>Flaecheninhalt</t>
   </si>
   <si>
@@ -1750,6 +1741,372 @@
   </si>
   <si>
     <t>Servo-Arm-Winkel.par</t>
+  </si>
+  <si>
+    <t>NK004</t>
+  </si>
+  <si>
+    <t>NK003</t>
+  </si>
+  <si>
+    <t>NK002</t>
+  </si>
+  <si>
+    <t>NK001</t>
+  </si>
+  <si>
+    <t>NK005</t>
+  </si>
+  <si>
+    <t>NK006</t>
+  </si>
+  <si>
+    <t>NK007</t>
+  </si>
+  <si>
+    <t>NK008</t>
+  </si>
+  <si>
+    <t>NK009</t>
+  </si>
+  <si>
+    <t>NK010</t>
+  </si>
+  <si>
+    <t>NK011</t>
+  </si>
+  <si>
+    <t>NK012</t>
+  </si>
+  <si>
+    <t>NK013</t>
+  </si>
+  <si>
+    <t>NK014</t>
+  </si>
+  <si>
+    <t>NK015</t>
+  </si>
+  <si>
+    <t>NK016</t>
+  </si>
+  <si>
+    <t>NK017</t>
+  </si>
+  <si>
+    <t>NK018</t>
+  </si>
+  <si>
+    <t>NK019</t>
+  </si>
+  <si>
+    <t>NK020</t>
+  </si>
+  <si>
+    <t>NK021</t>
+  </si>
+  <si>
+    <t>NK022</t>
+  </si>
+  <si>
+    <t>NK023</t>
+  </si>
+  <si>
+    <t>K001</t>
+  </si>
+  <si>
+    <t>K002</t>
+  </si>
+  <si>
+    <t>NK024</t>
+  </si>
+  <si>
+    <t>NK025</t>
+  </si>
+  <si>
+    <t>K003</t>
+  </si>
+  <si>
+    <t>NK026</t>
+  </si>
+  <si>
+    <t>NK027</t>
+  </si>
+  <si>
+    <t>NK028</t>
+  </si>
+  <si>
+    <t>K004</t>
+  </si>
+  <si>
+    <t>K005</t>
+  </si>
+  <si>
+    <t>K006</t>
+  </si>
+  <si>
+    <t>K007</t>
+  </si>
+  <si>
+    <t>K008</t>
+  </si>
+  <si>
+    <t>K009</t>
+  </si>
+  <si>
+    <t>K010</t>
+  </si>
+  <si>
+    <t>K011</t>
+  </si>
+  <si>
+    <t>K012</t>
+  </si>
+  <si>
+    <t>K013</t>
+  </si>
+  <si>
+    <t>K014</t>
+  </si>
+  <si>
+    <t>K015</t>
+  </si>
+  <si>
+    <t>K016</t>
+  </si>
+  <si>
+    <t>K017</t>
+  </si>
+  <si>
+    <t>K018</t>
+  </si>
+  <si>
+    <t>K019</t>
+  </si>
+  <si>
+    <t>K020</t>
+  </si>
+  <si>
+    <t>K021</t>
+  </si>
+  <si>
+    <t>K022</t>
+  </si>
+  <si>
+    <t>NK029</t>
+  </si>
+  <si>
+    <t>NK030</t>
+  </si>
+  <si>
+    <t>K023</t>
+  </si>
+  <si>
+    <t>K024</t>
+  </si>
+  <si>
+    <t>K025</t>
+  </si>
+  <si>
+    <t>K026</t>
+  </si>
+  <si>
+    <t>K027</t>
+  </si>
+  <si>
+    <t>K028</t>
+  </si>
+  <si>
+    <t>K029</t>
+  </si>
+  <si>
+    <t>K030</t>
+  </si>
+  <si>
+    <t>K031</t>
+  </si>
+  <si>
+    <t>K032</t>
+  </si>
+  <si>
+    <t>K033</t>
+  </si>
+  <si>
+    <t>K034</t>
+  </si>
+  <si>
+    <t>K035</t>
+  </si>
+  <si>
+    <t>K036</t>
+  </si>
+  <si>
+    <t>K037</t>
+  </si>
+  <si>
+    <t>K038</t>
+  </si>
+  <si>
+    <t>K039</t>
+  </si>
+  <si>
+    <t>K040</t>
+  </si>
+  <si>
+    <t>K041</t>
+  </si>
+  <si>
+    <t>K042</t>
+  </si>
+  <si>
+    <t>K043</t>
+  </si>
+  <si>
+    <t>K044</t>
+  </si>
+  <si>
+    <t>K045</t>
+  </si>
+  <si>
+    <t>K046</t>
+  </si>
+  <si>
+    <t>K047</t>
+  </si>
+  <si>
+    <t>K048</t>
+  </si>
+  <si>
+    <t>K049</t>
+  </si>
+  <si>
+    <t>K050</t>
+  </si>
+  <si>
+    <t>K051</t>
+  </si>
+  <si>
+    <t>K052</t>
+  </si>
+  <si>
+    <t>K053</t>
+  </si>
+  <si>
+    <t>K054</t>
+  </si>
+  <si>
+    <t>K055</t>
+  </si>
+  <si>
+    <t>K056</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>NK031</t>
+  </si>
+  <si>
+    <t>NK032</t>
+  </si>
+  <si>
+    <t>NK033</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>NK034</t>
+  </si>
+  <si>
+    <t>NK035</t>
+  </si>
+  <si>
+    <t>NK036</t>
+  </si>
+  <si>
+    <t>NK037</t>
+  </si>
+  <si>
+    <t>K057</t>
+  </si>
+  <si>
+    <t>K058</t>
+  </si>
+  <si>
+    <t>K059</t>
+  </si>
+  <si>
+    <t>K060</t>
+  </si>
+  <si>
+    <t>K061</t>
+  </si>
+  <si>
+    <t>K062</t>
+  </si>
+  <si>
+    <t>K063</t>
+  </si>
+  <si>
+    <t>K064</t>
+  </si>
+  <si>
+    <t>NK038</t>
+  </si>
+  <si>
+    <t>NK039</t>
+  </si>
+  <si>
+    <t>NK040</t>
+  </si>
+  <si>
+    <t>NK041</t>
+  </si>
+  <si>
+    <t>NK042</t>
+  </si>
+  <si>
+    <t>NK043</t>
+  </si>
+  <si>
+    <t>NK044</t>
+  </si>
+  <si>
+    <t>NK045</t>
+  </si>
+  <si>
+    <t>NK046</t>
+  </si>
+  <si>
+    <t>NK047</t>
+  </si>
+  <si>
+    <t>NK048</t>
+  </si>
+  <si>
+    <t>NK049</t>
+  </si>
+  <si>
+    <t>NK050</t>
+  </si>
+  <si>
+    <t>NK051</t>
+  </si>
+  <si>
+    <t>NK052</t>
+  </si>
+  <si>
+    <t>NK053</t>
+  </si>
+  <si>
+    <t>NK054</t>
+  </si>
+  <si>
+    <t>NK055</t>
   </si>
 </sst>
 </file>
@@ -2127,82 +2484,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31ABC05-1310-40CC-AAF6-8567B020221C}">
   <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="M154" sqref="M154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="83.44140625" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="26.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="20.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>455</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2212,11 +2559,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>0.99</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3">
-        <v>0.99</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -2224,22 +2571,16 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
       <c r="I3" t="s">
+        <v>468</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>471</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -2247,11 +2588,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0.99</v>
+      <c r="D4">
+        <v>0.99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -2259,22 +2600,16 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
       <c r="I4" t="s">
+        <v>452</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>455</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -2282,11 +2617,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0.99</v>
+      <c r="D5">
+        <v>0.99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -2294,22 +2629,16 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
       <c r="I5" t="s">
+        <v>452</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>455</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -2317,11 +2646,11 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>0.99</v>
+      <c r="D6">
+        <v>0.99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2329,22 +2658,16 @@
       <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
       <c r="I6" t="s">
+        <v>452</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>455</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -2352,11 +2675,11 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>0.99</v>
+      <c r="D7">
+        <v>0.99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -2364,34 +2687,28 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
       <c r="I7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
-        <v>455</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>0.99</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
-      </c>
-      <c r="E8">
-        <v>0.99</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -2402,31 +2719,25 @@
       <c r="H8" t="s">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>0.99</v>
+      <c r="D9">
+        <v>0.99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -2437,66 +2748,54 @@
       <c r="H9" t="s">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="J9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10">
-        <v>0.99</v>
+      <c r="D10">
+        <v>0.99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>453</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
-        <v>456</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K10" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11">
-        <v>0.99</v>
+      <c r="D11">
+        <v>0.99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -2507,31 +2806,25 @@
       <c r="H11" t="s">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="J11" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>45</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
@@ -2542,80 +2835,71 @@
       <c r="H12" t="s">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="J12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
       </c>
       <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
         <v>50</v>
       </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
       <c r="H13" t="s">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
-      <c r="J13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
       </c>
       <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
         <v>53</v>
       </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" t="s">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>54</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -2623,119 +2907,113 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>0.99</v>
+      <c r="D15">
+        <v>0.99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
       </c>
       <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
         <v>56</v>
       </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1</v>
-      </c>
       <c r="I15" t="s">
+        <v>467</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>57</v>
       </c>
-      <c r="K15" t="s">
-        <v>470</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>0.99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>0.99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>0.99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <v>0.99</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>0.99</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17">
-        <v>0.99</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>0.99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18">
-        <v>0.99</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19">
-        <v>0.99</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20">
-        <v>0.99</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -2743,66 +3021,57 @@
       <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>0.99</v>
+      <c r="D21">
+        <v>0.99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>64</v>
       </c>
-      <c r="J21" t="s">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>66</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>67</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2810,46 +3079,40 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>0.99</v>
+      <c r="D23">
+        <v>0.99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="J23" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>0.99</v>
+      </c>
+      <c r="E24" t="s">
         <v>71</v>
-      </c>
-      <c r="E24">
-        <v>0.99</v>
       </c>
       <c r="F24" t="s">
         <v>72</v>
@@ -2857,34 +3120,28 @@
       <c r="G24" t="s">
         <v>73</v>
       </c>
-      <c r="H24" t="s">
-        <v>1</v>
-      </c>
       <c r="I24" t="s">
+        <v>454</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
-      <c r="K24" t="s">
-        <v>457</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25">
-        <v>0.99</v>
+      <c r="D25">
+        <v>0.99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
       </c>
       <c r="F25" t="s">
         <v>76</v>
@@ -2892,22 +3149,16 @@
       <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="H25" t="s">
-        <v>1</v>
-      </c>
       <c r="I25" t="s">
+        <v>454</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>78</v>
-      </c>
-      <c r="K25" t="s">
-        <v>457</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>79</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -2915,34 +3166,28 @@
       <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>0.99</v>
+      <c r="D26">
+        <v>0.99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
       </c>
       <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
         <v>80</v>
       </c>
-      <c r="G26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1</v>
-      </c>
       <c r="I26" t="s">
+        <v>467</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>81</v>
-      </c>
-      <c r="K26" t="s">
-        <v>470</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -2950,34 +3195,28 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>0.99</v>
+      <c r="D27">
+        <v>0.99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s">
+        <v>467</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>83</v>
-      </c>
-      <c r="K27" t="s">
-        <v>470</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -2985,270 +3224,243 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>0.99</v>
+      <c r="D28">
+        <v>0.99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1</v>
+        <v>455</v>
       </c>
       <c r="I28" t="s">
-        <v>458</v>
-      </c>
-      <c r="K28" t="s">
-        <v>470</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
       </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="J29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
       </c>
-      <c r="D30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
         <v>1</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>88</v>
       </c>
-      <c r="J30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>89</v>
-      </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
         <v>1</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>90</v>
       </c>
-      <c r="J31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>91</v>
-      </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s">
         <v>1</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>92</v>
       </c>
-      <c r="J32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
       </c>
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
         <v>1</v>
       </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>94</v>
       </c>
-      <c r="J33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
         <v>1</v>
       </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>96</v>
       </c>
-      <c r="J34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>97</v>
-      </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="H35" t="s">
         <v>1</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>98</v>
       </c>
-      <c r="J35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>99</v>
-      </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
       </c>
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36">
-        <v>0.99</v>
+      <c r="D36">
+        <v>0.99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
       </c>
       <c r="F36" t="s">
         <v>100</v>
@@ -3256,34 +3468,28 @@
       <c r="G36" t="s">
         <v>101</v>
       </c>
-      <c r="H36" t="s">
-        <v>1</v>
-      </c>
       <c r="I36" t="s">
+        <v>454</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>102</v>
       </c>
-      <c r="K36" t="s">
-        <v>457</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>103</v>
-      </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
         <v>70</v>
       </c>
-      <c r="D37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37">
-        <v>0.99</v>
+      <c r="D37">
+        <v>0.99</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
       </c>
       <c r="F37" t="s">
         <v>104</v>
@@ -3291,34 +3497,28 @@
       <c r="G37" t="s">
         <v>105</v>
       </c>
-      <c r="H37" t="s">
-        <v>1</v>
-      </c>
       <c r="I37" t="s">
+        <v>454</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>106</v>
       </c>
-      <c r="K37" t="s">
-        <v>457</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
         <v>70</v>
       </c>
-      <c r="D38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38">
-        <v>0.99</v>
+      <c r="D38">
+        <v>0.99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
       </c>
       <c r="F38" t="s">
         <v>108</v>
@@ -3326,34 +3526,28 @@
       <c r="G38" t="s">
         <v>109</v>
       </c>
-      <c r="H38" t="s">
-        <v>1</v>
-      </c>
       <c r="I38" t="s">
+        <v>454</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>110</v>
       </c>
-      <c r="K38" t="s">
-        <v>457</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>111</v>
-      </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>70</v>
       </c>
-      <c r="D39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39">
-        <v>0.99</v>
+      <c r="D39">
+        <v>0.99</v>
+      </c>
+      <c r="E39" t="s">
+        <v>111</v>
       </c>
       <c r="F39" t="s">
         <v>112</v>
@@ -3361,34 +3555,28 @@
       <c r="G39" t="s">
         <v>113</v>
       </c>
-      <c r="H39" t="s">
-        <v>1</v>
-      </c>
       <c r="I39" t="s">
+        <v>454</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="K39" t="s">
-        <v>457</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>115</v>
-      </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
         <v>70</v>
       </c>
-      <c r="D40" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40">
-        <v>0.99</v>
+      <c r="D40">
+        <v>0.99</v>
+      </c>
+      <c r="E40" t="s">
+        <v>115</v>
       </c>
       <c r="F40" t="s">
         <v>116</v>
@@ -3396,56 +3584,50 @@
       <c r="G40" t="s">
         <v>117</v>
       </c>
-      <c r="H40" t="s">
-        <v>1</v>
-      </c>
       <c r="I40" t="s">
+        <v>454</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>118</v>
       </c>
-      <c r="K40" t="s">
-        <v>457</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <v>0.99</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>119</v>
       </c>
-      <c r="C41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41">
-        <v>0.99</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42">
+        <v>0.99</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>120</v>
-      </c>
-      <c r="C42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42">
-        <v>0.99</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>121</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -3453,11 +3635,11 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43">
-        <v>0.99</v>
+      <c r="D43">
+        <v>0.99</v>
+      </c>
+      <c r="E43" t="s">
+        <v>121</v>
       </c>
       <c r="F43" t="s">
         <v>122</v>
@@ -3465,34 +3647,28 @@
       <c r="G43" t="s">
         <v>123</v>
       </c>
-      <c r="H43" t="s">
-        <v>1</v>
-      </c>
       <c r="I43" t="s">
+        <v>456</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>124</v>
       </c>
-      <c r="K43" t="s">
-        <v>459</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>126</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>0.99</v>
+      </c>
+      <c r="E44" t="s">
         <v>127</v>
-      </c>
-      <c r="E44">
-        <v>0.99</v>
       </c>
       <c r="F44" t="s">
         <v>128</v>
@@ -3500,34 +3676,28 @@
       <c r="G44" t="s">
         <v>129</v>
       </c>
-      <c r="H44" t="s">
-        <v>1</v>
-      </c>
       <c r="I44" t="s">
+        <v>454</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>130</v>
       </c>
-      <c r="K44" t="s">
-        <v>457</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>131</v>
-      </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
         <v>126</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45">
+        <v>0.99</v>
+      </c>
+      <c r="E45" t="s">
         <v>127</v>
-      </c>
-      <c r="E45">
-        <v>0.99</v>
       </c>
       <c r="F45" t="s">
         <v>128</v>
@@ -3535,86 +3705,74 @@
       <c r="G45" t="s">
         <v>129</v>
       </c>
-      <c r="H45" t="s">
-        <v>1</v>
-      </c>
       <c r="I45" t="s">
-        <v>130</v>
-      </c>
-      <c r="K45" t="s">
-        <v>457</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
       </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="H46" t="s">
         <v>1</v>
       </c>
-      <c r="I46" t="s">
+      <c r="L46" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>133</v>
       </c>
-      <c r="J46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>134</v>
-      </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
       </c>
-      <c r="D47" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="H47" t="s">
         <v>1</v>
       </c>
-      <c r="I47" t="s">
+      <c r="L47" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>135</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>136</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -3622,11 +3780,11 @@
       <c r="C48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48">
-        <v>0.99</v>
+      <c r="D48">
+        <v>0.99</v>
+      </c>
+      <c r="E48" t="s">
+        <v>136</v>
       </c>
       <c r="F48" t="s">
         <v>137</v>
@@ -3634,22 +3792,16 @@
       <c r="G48" t="s">
         <v>138</v>
       </c>
-      <c r="H48" t="s">
-        <v>1</v>
-      </c>
       <c r="I48" t="s">
+        <v>452</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>139</v>
-      </c>
-      <c r="K48" t="s">
-        <v>455</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>140</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -3657,34 +3809,28 @@
       <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49">
-        <v>0.99</v>
+      <c r="D49">
+        <v>0.99</v>
+      </c>
+      <c r="E49" t="s">
+        <v>457</v>
       </c>
       <c r="F49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G49" t="s">
-        <v>461</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1</v>
+        <v>459</v>
       </c>
       <c r="I49" t="s">
-        <v>462</v>
-      </c>
-      <c r="K49" t="s">
-        <v>455</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -3692,81 +3838,69 @@
       <c r="C50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50">
-        <v>0.99</v>
+      <c r="D50">
+        <v>0.99</v>
+      </c>
+      <c r="E50" t="s">
+        <v>460</v>
       </c>
       <c r="F50" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G50" t="s">
-        <v>464</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1</v>
+        <v>462</v>
       </c>
       <c r="I50" t="s">
-        <v>465</v>
-      </c>
-      <c r="K50" t="s">
-        <v>455</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
         <v>126</v>
       </c>
-      <c r="D51" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51">
-        <v>0.99</v>
+      <c r="D51">
+        <v>0.99</v>
+      </c>
+      <c r="E51" t="s">
+        <v>287</v>
       </c>
       <c r="F51" t="s">
-        <v>288</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1</v>
+        <v>463</v>
       </c>
       <c r="I51" t="s">
-        <v>466</v>
-      </c>
-      <c r="K51" t="s">
-        <v>457</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
         <v>126</v>
       </c>
-      <c r="D52" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52">
-        <v>0.99</v>
+      <c r="D52">
+        <v>0.99</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
       </c>
       <c r="F52" t="s">
         <v>144</v>
@@ -3774,22 +3908,16 @@
       <c r="G52" t="s">
         <v>145</v>
       </c>
-      <c r="H52" t="s">
-        <v>1</v>
-      </c>
       <c r="I52" t="s">
+        <v>454</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>146</v>
-      </c>
-      <c r="K52" t="s">
-        <v>457</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>147</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -3797,11 +3925,11 @@
       <c r="C53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53">
-        <v>0.99</v>
+      <c r="D53">
+        <v>0.99</v>
+      </c>
+      <c r="E53" t="s">
+        <v>147</v>
       </c>
       <c r="F53" t="s">
         <v>148</v>
@@ -3809,22 +3937,16 @@
       <c r="G53" t="s">
         <v>149</v>
       </c>
-      <c r="H53" t="s">
-        <v>1</v>
-      </c>
       <c r="I53" t="s">
+        <v>452</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>150</v>
-      </c>
-      <c r="K53" t="s">
-        <v>455</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>151</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -3832,11 +3954,11 @@
       <c r="C54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54">
-        <v>0.99</v>
+      <c r="D54">
+        <v>0.99</v>
+      </c>
+      <c r="E54" t="s">
+        <v>151</v>
       </c>
       <c r="F54" t="s">
         <v>152</v>
@@ -3844,34 +3966,28 @@
       <c r="G54" t="s">
         <v>153</v>
       </c>
-      <c r="H54" t="s">
-        <v>1</v>
-      </c>
       <c r="I54" t="s">
+        <v>452</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>154</v>
       </c>
-      <c r="K54" t="s">
-        <v>455</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>155</v>
-      </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
         <v>126</v>
       </c>
-      <c r="D55" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55">
-        <v>0.99</v>
+      <c r="D55">
+        <v>0.99</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
       </c>
       <c r="F55" t="s">
         <v>156</v>
@@ -3879,419 +3995,380 @@
       <c r="G55" t="s">
         <v>157</v>
       </c>
-      <c r="H55" t="s">
-        <v>1</v>
-      </c>
       <c r="I55" t="s">
+        <v>454</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>158</v>
       </c>
-      <c r="K55" t="s">
-        <v>457</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>159</v>
-      </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
         <v>44</v>
       </c>
-      <c r="D56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="H56" t="s">
         <v>1</v>
       </c>
-      <c r="I56" t="s">
+      <c r="L56" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>160</v>
       </c>
-      <c r="J56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>161</v>
-      </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
         <v>44</v>
       </c>
-      <c r="D57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="H57" t="s">
         <v>1</v>
       </c>
-      <c r="I57" t="s">
+      <c r="L57" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>162</v>
       </c>
-      <c r="J57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>163</v>
-      </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
         <v>44</v>
       </c>
-      <c r="D58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="H58" t="s">
         <v>1</v>
       </c>
-      <c r="I58" t="s">
+      <c r="L58" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>164</v>
       </c>
-      <c r="J58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>165</v>
-      </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
         <v>44</v>
       </c>
-      <c r="D59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="H59" t="s">
         <v>1</v>
       </c>
-      <c r="I59" t="s">
+      <c r="L59" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>166</v>
       </c>
-      <c r="J59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>167</v>
-      </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
         <v>44</v>
       </c>
-      <c r="D60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>167</v>
       </c>
       <c r="F60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G60" t="s">
         <v>168</v>
       </c>
-      <c r="G60" t="s">
-        <v>47</v>
-      </c>
       <c r="H60" t="s">
         <v>1</v>
       </c>
-      <c r="I60" t="s">
+      <c r="L60" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>169</v>
       </c>
-      <c r="J60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>170</v>
-      </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
         <v>44</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
         <v>45</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>46</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="H61" t="s">
         <v>1</v>
       </c>
-      <c r="I61" t="s">
+      <c r="L61" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>171</v>
       </c>
-      <c r="J61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>172</v>
-      </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
         <v>44</v>
       </c>
-      <c r="D62" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="H62" t="s">
         <v>1</v>
       </c>
-      <c r="I62" t="s">
+      <c r="L62" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>173</v>
       </c>
-      <c r="J62" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>174</v>
-      </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
         <v>44</v>
       </c>
-      <c r="D63" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>55</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="H63" t="s">
         <v>1</v>
       </c>
-      <c r="I63" t="s">
+      <c r="L63" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>175</v>
       </c>
-      <c r="J63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>176</v>
-      </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
         <v>44</v>
       </c>
-      <c r="D64" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>55</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="H64" t="s">
         <v>1</v>
       </c>
-      <c r="I64" t="s">
-        <v>177</v>
-      </c>
-      <c r="J64" t="s">
-        <v>1</v>
+      <c r="L64" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
         <v>44</v>
       </c>
-      <c r="D65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="H65" t="s">
         <v>1</v>
       </c>
-      <c r="I65" t="s">
-        <v>179</v>
-      </c>
-      <c r="J65" t="s">
-        <v>1</v>
+      <c r="L65" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>180</v>
-      </c>
-      <c r="C66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66">
-        <v>0.99</v>
-      </c>
-      <c r="J66" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66">
+        <v>0.99</v>
+      </c>
+      <c r="H66" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>181</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>2</v>
-      </c>
-      <c r="G67" t="s">
         <v>3</v>
       </c>
-      <c r="L67" t="s">
-        <v>468</v>
+      <c r="J67" t="s">
+        <v>465</v>
+      </c>
+      <c r="M67" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>182</v>
-      </c>
-      <c r="C68" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68">
-        <v>0.99</v>
-      </c>
-      <c r="L68" t="s">
-        <v>468</v>
+        <v>181</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68">
+        <v>0.99</v>
+      </c>
+      <c r="J68" t="s">
+        <v>465</v>
+      </c>
+      <c r="M68" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
         <v>44</v>
       </c>
-      <c r="D69" t="s">
-        <v>45</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>55</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="H69" t="s">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>184</v>
-      </c>
-      <c r="J69" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -4299,148 +4376,127 @@
       <c r="C70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70">
-        <v>0.99</v>
+      <c r="D70">
+        <v>0.99</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="H70" t="s">
         <v>1</v>
       </c>
-      <c r="I70" t="s">
-        <v>186</v>
-      </c>
-      <c r="J70" t="s">
-        <v>1</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>514</v>
+      <c r="K70" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" t="s">
         <v>187</v>
-      </c>
-      <c r="B71" t="s">
-        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>188</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
         <v>189</v>
       </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>2</v>
-      </c>
-      <c r="G71" t="s">
-        <v>3</v>
-      </c>
       <c r="H71" t="s">
         <v>1</v>
       </c>
-      <c r="I71" t="s">
-        <v>190</v>
-      </c>
-      <c r="J71" t="s">
-        <v>1</v>
+      <c r="L71" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s">
         <v>126</v>
       </c>
-      <c r="D72" t="s">
-        <v>127</v>
-      </c>
-      <c r="E72">
-        <v>0.99</v>
+      <c r="D72">
+        <v>0.99</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="I72" t="s">
-        <v>192</v>
-      </c>
-      <c r="K72" t="s">
-        <v>457</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>515</v>
+        <v>454</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
         <v>126</v>
       </c>
-      <c r="D73" t="s">
-        <v>127</v>
-      </c>
-      <c r="E73">
-        <v>0.99</v>
+      <c r="D73">
+        <v>0.99</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" t="s">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="I73" t="s">
-        <v>194</v>
-      </c>
-      <c r="K73" t="s">
-        <v>457</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>516</v>
+        <v>454</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" t="s">
         <v>195</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="D74">
+        <v>0.99</v>
+      </c>
+      <c r="E74" t="s">
         <v>196</v>
-      </c>
-      <c r="E74">
-        <v>0.99</v>
       </c>
       <c r="F74" t="s">
         <v>197</v>
@@ -4449,143 +4505,119 @@
         <v>198</v>
       </c>
       <c r="H74" t="s">
-        <v>5</v>
-      </c>
-      <c r="I74" t="s">
-        <v>199</v>
-      </c>
-      <c r="J74" t="s">
-        <v>1</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>517</v>
+        <v>1</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
         <v>44</v>
       </c>
-      <c r="D75" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>55</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="H75" t="s">
         <v>1</v>
       </c>
-      <c r="I75" t="s">
-        <v>201</v>
-      </c>
-      <c r="J75" t="s">
-        <v>1</v>
+      <c r="L75" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" t="s">
         <v>202</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="D76">
+        <v>0.99</v>
+      </c>
+      <c r="E76" t="s">
         <v>203</v>
-      </c>
-      <c r="E76">
-        <v>0.99</v>
       </c>
       <c r="F76" t="s">
         <v>204</v>
       </c>
       <c r="G76" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H76" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" t="s">
-        <v>199</v>
-      </c>
-      <c r="J76" t="s">
-        <v>1</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>518</v>
+        <v>1</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
         <v>206</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" t="s">
-        <v>38</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="D77">
+        <v>0.99</v>
+      </c>
+      <c r="E77" t="s">
         <v>207</v>
       </c>
-      <c r="E77">
-        <v>0.99</v>
-      </c>
       <c r="F77" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="H77" t="s">
-        <v>5</v>
-      </c>
-      <c r="I77" t="s">
-        <v>199</v>
-      </c>
-      <c r="J77" t="s">
-        <v>1</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>519</v>
+        <v>1</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>209</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>2</v>
-      </c>
-      <c r="G78" t="s">
         <v>3</v>
       </c>
-      <c r="K78" t="s">
-        <v>455</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>520</v>
+      <c r="I78" t="s">
+        <v>452</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -4593,11 +4625,11 @@
       <c r="C79" t="s">
         <v>6</v>
       </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79">
-        <v>0.99</v>
+      <c r="D79">
+        <v>0.99</v>
+      </c>
+      <c r="E79" t="s">
+        <v>210</v>
       </c>
       <c r="F79" t="s">
         <v>211</v>
@@ -4605,911 +4637,1028 @@
       <c r="G79" t="s">
         <v>212</v>
       </c>
-      <c r="H79" t="s">
-        <v>1</v>
-      </c>
       <c r="I79" t="s">
-        <v>213</v>
-      </c>
-      <c r="K79" t="s">
-        <v>455</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>521</v>
+        <v>452</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80">
+        <v>0.99</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>214</v>
       </c>
-      <c r="C80" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80">
-        <v>0.99</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>215</v>
-      </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
         <v>44</v>
       </c>
-      <c r="D81" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>55</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
       <c r="H81" t="s">
         <v>1</v>
       </c>
-      <c r="I81" t="s">
+      <c r="L81" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>216</v>
       </c>
-      <c r="J81" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>217</v>
-      </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
         <v>44</v>
       </c>
-      <c r="D82" t="s">
-        <v>45</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>79</v>
       </c>
       <c r="F82" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="H82" t="s">
         <v>1</v>
       </c>
-      <c r="I82" t="s">
+      <c r="L82" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>218</v>
       </c>
-      <c r="J82" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>219</v>
-      </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
         <v>44</v>
       </c>
-      <c r="D83" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2</v>
       </c>
       <c r="F83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" t="s">
+        <v>219</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84">
+        <v>0.99</v>
+      </c>
+      <c r="J84" t="s">
+        <v>465</v>
+      </c>
+      <c r="M84" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85">
+        <v>0.99</v>
+      </c>
+      <c r="J85" t="s">
+        <v>465</v>
+      </c>
+      <c r="M85" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86">
+        <v>0.99</v>
+      </c>
+      <c r="J86" t="s">
+        <v>465</v>
+      </c>
+      <c r="M86" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>223</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87">
+        <v>0.99</v>
+      </c>
+      <c r="J87" t="s">
+        <v>465</v>
+      </c>
+      <c r="M87" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88">
+        <v>0.99</v>
+      </c>
+      <c r="J88" t="s">
+        <v>465</v>
+      </c>
+      <c r="M88" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>225</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89">
+        <v>0.99</v>
+      </c>
+      <c r="J89" t="s">
+        <v>465</v>
+      </c>
+      <c r="M89" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>226</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90">
+        <v>0.99</v>
+      </c>
+      <c r="J90" t="s">
+        <v>465</v>
+      </c>
+      <c r="M90" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91">
+        <v>0.99</v>
+      </c>
+      <c r="J91" t="s">
+        <v>465</v>
+      </c>
+      <c r="M91" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92">
+        <v>0.99</v>
+      </c>
+      <c r="J92" t="s">
+        <v>465</v>
+      </c>
+      <c r="M92" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93">
+        <v>0.99</v>
+      </c>
+      <c r="J93" t="s">
+        <v>465</v>
+      </c>
+      <c r="M93" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>230</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94">
+        <v>0.99</v>
+      </c>
+      <c r="J94" t="s">
+        <v>465</v>
+      </c>
+      <c r="M94" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>231</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95">
+        <v>0.99</v>
+      </c>
+      <c r="J95" t="s">
+        <v>465</v>
+      </c>
+      <c r="M95" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>232</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96">
+        <v>0.99</v>
+      </c>
+      <c r="J96" t="s">
+        <v>465</v>
+      </c>
+      <c r="M96" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>233</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97">
+        <v>0.99</v>
+      </c>
+      <c r="J97" t="s">
+        <v>465</v>
+      </c>
+      <c r="M97" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>234</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98">
+        <v>0.99</v>
+      </c>
+      <c r="J98" t="s">
+        <v>465</v>
+      </c>
+      <c r="M98" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>235</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99">
+        <v>0.99</v>
+      </c>
+      <c r="J99" t="s">
+        <v>465</v>
+      </c>
+      <c r="M99" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>236</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100">
+        <v>0.99</v>
+      </c>
+      <c r="J100" t="s">
+        <v>465</v>
+      </c>
+      <c r="M100" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101">
+        <v>0.99</v>
+      </c>
+      <c r="J101" t="s">
+        <v>465</v>
+      </c>
+      <c r="M101" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>238</v>
+      </c>
+      <c r="E102" t="s">
         <v>2</v>
       </c>
-      <c r="G83" t="s">
+      <c r="F102" t="s">
         <v>3</v>
       </c>
-      <c r="H83" t="s">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
-        <v>220</v>
-      </c>
-      <c r="J83" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>221</v>
-      </c>
-      <c r="C84" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84">
-        <v>0.99</v>
-      </c>
-      <c r="L84" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>222</v>
-      </c>
-      <c r="C85" t="s">
-        <v>38</v>
-      </c>
-      <c r="E85">
-        <v>0.99</v>
-      </c>
-      <c r="L85" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>223</v>
-      </c>
-      <c r="C86" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86">
-        <v>0.99</v>
-      </c>
-      <c r="L86" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>224</v>
-      </c>
-      <c r="C87" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87">
-        <v>0.99</v>
-      </c>
-      <c r="L87" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>225</v>
-      </c>
-      <c r="C88" t="s">
-        <v>38</v>
-      </c>
-      <c r="E88">
-        <v>0.99</v>
-      </c>
-      <c r="L88" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" t="s">
-        <v>38</v>
-      </c>
-      <c r="E89">
-        <v>0.99</v>
-      </c>
-      <c r="L89" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>227</v>
-      </c>
-      <c r="C90" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90">
-        <v>0.99</v>
-      </c>
-      <c r="L90" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>228</v>
-      </c>
-      <c r="C91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91">
-        <v>0.99</v>
-      </c>
-      <c r="L91" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>229</v>
-      </c>
-      <c r="C92" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92">
-        <v>0.99</v>
-      </c>
-      <c r="L92" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>230</v>
-      </c>
-      <c r="C93" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93">
-        <v>0.99</v>
-      </c>
-      <c r="L93" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>231</v>
-      </c>
-      <c r="C94" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94">
-        <v>0.99</v>
-      </c>
-      <c r="L94" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>232</v>
-      </c>
-      <c r="C95" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95">
-        <v>0.99</v>
-      </c>
-      <c r="L95" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>233</v>
-      </c>
-      <c r="C96" t="s">
-        <v>38</v>
-      </c>
-      <c r="E96">
-        <v>0.99</v>
-      </c>
-      <c r="L96" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>234</v>
-      </c>
-      <c r="C97" t="s">
-        <v>38</v>
-      </c>
-      <c r="E97">
-        <v>0.99</v>
-      </c>
-      <c r="L97" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>235</v>
-      </c>
-      <c r="C98" t="s">
-        <v>38</v>
-      </c>
-      <c r="E98">
-        <v>0.99</v>
-      </c>
-      <c r="L98" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>236</v>
-      </c>
-      <c r="C99" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99">
-        <v>0.99</v>
-      </c>
-      <c r="L99" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>237</v>
-      </c>
-      <c r="C100" t="s">
-        <v>38</v>
-      </c>
-      <c r="E100">
-        <v>0.99</v>
-      </c>
-      <c r="L100" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>238</v>
-      </c>
-      <c r="C101" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101">
-        <v>0.99</v>
-      </c>
-      <c r="L101" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>239</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s">
-        <v>2</v>
-      </c>
-      <c r="G102" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
+        <v>465</v>
+      </c>
+      <c r="M102" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
         <v>44</v>
       </c>
-      <c r="D103" t="s">
-        <v>45</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>55</v>
       </c>
       <c r="F103" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="H103" t="s">
         <v>1</v>
       </c>
-      <c r="I103" t="s">
-        <v>184</v>
-      </c>
-      <c r="J103" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L103" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" t="s">
         <v>187</v>
-      </c>
-      <c r="B104" t="s">
-        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>188</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" t="s">
         <v>189</v>
       </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="H104" t="s">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105">
+        <v>0.99</v>
+      </c>
+      <c r="J105" t="s">
+        <v>465</v>
+      </c>
+      <c r="M105" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106">
+        <v>0.99</v>
+      </c>
+      <c r="J106" t="s">
+        <v>465</v>
+      </c>
+      <c r="M106" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107">
+        <v>0.99</v>
+      </c>
+      <c r="J107" t="s">
+        <v>465</v>
+      </c>
+      <c r="M107" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>242</v>
+      </c>
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108">
+        <v>0.99</v>
+      </c>
+      <c r="J108" t="s">
+        <v>465</v>
+      </c>
+      <c r="M108" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>243</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109">
+        <v>0.99</v>
+      </c>
+      <c r="J109" t="s">
+        <v>465</v>
+      </c>
+      <c r="M109" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>244</v>
+      </c>
+      <c r="B110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110">
+        <v>0.99</v>
+      </c>
+      <c r="J110" t="s">
+        <v>465</v>
+      </c>
+      <c r="M110" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>245</v>
+      </c>
+      <c r="B111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111">
+        <v>0.99</v>
+      </c>
+      <c r="J111" t="s">
+        <v>465</v>
+      </c>
+      <c r="M111" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>246</v>
+      </c>
+      <c r="E112" t="s">
         <v>2</v>
       </c>
-      <c r="G104" t="s">
+      <c r="F112" t="s">
         <v>3</v>
       </c>
-      <c r="H104" t="s">
-        <v>1</v>
-      </c>
-      <c r="I104" t="s">
-        <v>190</v>
-      </c>
-      <c r="J104" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>240</v>
-      </c>
-      <c r="C105" t="s">
-        <v>38</v>
-      </c>
-      <c r="E105">
-        <v>0.99</v>
-      </c>
-      <c r="L105" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>241</v>
-      </c>
-      <c r="C106" t="s">
-        <v>38</v>
-      </c>
-      <c r="E106">
-        <v>0.99</v>
-      </c>
-      <c r="L106" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>242</v>
-      </c>
-      <c r="C107" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107">
-        <v>0.99</v>
-      </c>
-      <c r="L107" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>243</v>
-      </c>
-      <c r="C108" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108">
-        <v>0.99</v>
-      </c>
-      <c r="L108" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>244</v>
-      </c>
-      <c r="C109" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109">
-        <v>0.99</v>
-      </c>
-      <c r="L109" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>245</v>
-      </c>
-      <c r="C110" t="s">
-        <v>38</v>
-      </c>
-      <c r="E110">
-        <v>0.99</v>
-      </c>
-      <c r="L110" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111">
-        <v>0.99</v>
-      </c>
-      <c r="L111" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="J112" t="s">
+        <v>465</v>
+      </c>
+      <c r="M112" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>247</v>
       </c>
-      <c r="B112" t="s">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="B113" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113">
+        <v>0.99</v>
+      </c>
+      <c r="J113" t="s">
+        <v>465</v>
+      </c>
+      <c r="M113" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114">
+        <v>0.99</v>
+      </c>
+      <c r="J114" t="s">
+        <v>465</v>
+      </c>
+      <c r="M114" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>249</v>
+      </c>
+      <c r="B115" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115">
+        <v>0.99</v>
+      </c>
+      <c r="J115" t="s">
+        <v>465</v>
+      </c>
+      <c r="M115" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116">
+        <v>0.99</v>
+      </c>
+      <c r="J116" t="s">
+        <v>465</v>
+      </c>
+      <c r="M116" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117">
+        <v>0.99</v>
+      </c>
+      <c r="J117" t="s">
+        <v>465</v>
+      </c>
+      <c r="M117" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118">
+        <v>0.99</v>
+      </c>
+      <c r="J118" t="s">
+        <v>465</v>
+      </c>
+      <c r="M118" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119">
+        <v>0.99</v>
+      </c>
+      <c r="J119" t="s">
+        <v>465</v>
+      </c>
+      <c r="M119" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120">
+        <v>0.99</v>
+      </c>
+      <c r="J120" t="s">
+        <v>465</v>
+      </c>
+      <c r="M120" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121">
+        <v>0.99</v>
+      </c>
+      <c r="J121" t="s">
+        <v>465</v>
+      </c>
+      <c r="M121" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122">
+        <v>0.99</v>
+      </c>
+      <c r="J122" t="s">
+        <v>465</v>
+      </c>
+      <c r="M122" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123">
+        <v>0.99</v>
+      </c>
+      <c r="J123" t="s">
+        <v>465</v>
+      </c>
+      <c r="M123" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124">
+        <v>0.99</v>
+      </c>
+      <c r="J124" t="s">
+        <v>465</v>
+      </c>
+      <c r="M124" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>259</v>
+      </c>
+      <c r="B125" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125">
+        <v>0.99</v>
+      </c>
+      <c r="J125" t="s">
+        <v>465</v>
+      </c>
+      <c r="M125" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>260</v>
+      </c>
+      <c r="B126" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126">
+        <v>0.99</v>
+      </c>
+      <c r="J126" t="s">
+        <v>465</v>
+      </c>
+      <c r="M126" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>261</v>
+      </c>
+      <c r="B127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127">
+        <v>0.99</v>
+      </c>
+      <c r="J127" t="s">
+        <v>465</v>
+      </c>
+      <c r="M127" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="E128" t="s">
         <v>2</v>
       </c>
-      <c r="G112" t="s">
+      <c r="F128" t="s">
         <v>3</v>
       </c>
-      <c r="L112" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>248</v>
-      </c>
-      <c r="C113" t="s">
-        <v>38</v>
-      </c>
-      <c r="E113">
-        <v>0.99</v>
-      </c>
-      <c r="L113" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>249</v>
-      </c>
-      <c r="C114" t="s">
-        <v>38</v>
-      </c>
-      <c r="E114">
-        <v>0.99</v>
-      </c>
-      <c r="L114" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" t="s">
-        <v>38</v>
-      </c>
-      <c r="E115">
-        <v>0.99</v>
-      </c>
-      <c r="L115" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>251</v>
-      </c>
-      <c r="C116" t="s">
-        <v>38</v>
-      </c>
-      <c r="E116">
-        <v>0.99</v>
-      </c>
-      <c r="L116" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>252</v>
-      </c>
-      <c r="C117" t="s">
-        <v>38</v>
-      </c>
-      <c r="E117">
-        <v>0.99</v>
-      </c>
-      <c r="L117" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>253</v>
-      </c>
-      <c r="C118" t="s">
-        <v>38</v>
-      </c>
-      <c r="E118">
-        <v>0.99</v>
-      </c>
-      <c r="L118" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>254</v>
-      </c>
-      <c r="C119" t="s">
-        <v>38</v>
-      </c>
-      <c r="E119">
-        <v>0.99</v>
-      </c>
-      <c r="L119" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>255</v>
-      </c>
-      <c r="C120" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120">
-        <v>0.99</v>
-      </c>
-      <c r="L120" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>256</v>
-      </c>
-      <c r="C121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E121">
-        <v>0.99</v>
-      </c>
-      <c r="L121" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>257</v>
-      </c>
-      <c r="C122" t="s">
-        <v>38</v>
-      </c>
-      <c r="E122">
-        <v>0.99</v>
-      </c>
-      <c r="L122" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>258</v>
-      </c>
-      <c r="C123" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123">
-        <v>0.99</v>
-      </c>
-      <c r="L123" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>259</v>
-      </c>
-      <c r="C124" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124">
-        <v>0.99</v>
-      </c>
-      <c r="L124" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>260</v>
-      </c>
-      <c r="C125" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125">
-        <v>0.99</v>
-      </c>
-      <c r="L125" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>261</v>
-      </c>
-      <c r="C126" t="s">
-        <v>38</v>
-      </c>
-      <c r="E126">
-        <v>0.99</v>
-      </c>
-      <c r="L126" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>262</v>
-      </c>
-      <c r="C127" t="s">
-        <v>38</v>
-      </c>
-      <c r="E127">
-        <v>0.99</v>
-      </c>
-      <c r="L127" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>263</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1</v>
-      </c>
-      <c r="F128" t="s">
-        <v>2</v>
-      </c>
-      <c r="G128" t="s">
-        <v>3</v>
-      </c>
-      <c r="L128" t="s">
-        <v>468</v>
+      <c r="J128" t="s">
+        <v>465</v>
+      </c>
+      <c r="M128" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>264</v>
-      </c>
-      <c r="C129" t="s">
-        <v>38</v>
-      </c>
-      <c r="E129">
-        <v>0.99</v>
-      </c>
-      <c r="L129" t="s">
-        <v>468</v>
+        <v>263</v>
+      </c>
+      <c r="B129" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129">
+        <v>0.99</v>
+      </c>
+      <c r="J129" t="s">
+        <v>465</v>
+      </c>
+      <c r="M129" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>265</v>
-      </c>
-      <c r="C130" t="s">
-        <v>38</v>
-      </c>
-      <c r="E130">
-        <v>0.99</v>
-      </c>
-      <c r="L130" t="s">
-        <v>468</v>
+        <v>264</v>
+      </c>
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130">
+        <v>0.99</v>
+      </c>
+      <c r="J130" t="s">
+        <v>465</v>
+      </c>
+      <c r="M130" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>266</v>
-      </c>
-      <c r="C131" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131">
-        <v>0.99</v>
-      </c>
-      <c r="L131" t="s">
-        <v>468</v>
+        <v>265</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131">
+        <v>0.99</v>
+      </c>
+      <c r="J131" t="s">
+        <v>465</v>
+      </c>
+      <c r="M131" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>267</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1</v>
+        <v>266</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>2</v>
-      </c>
-      <c r="G132" t="s">
         <v>3</v>
       </c>
-      <c r="L132" t="s">
-        <v>468</v>
+      <c r="J132" t="s">
+        <v>465</v>
+      </c>
+      <c r="M132" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>268</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1</v>
+        <v>267</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2</v>
       </c>
       <c r="F133" t="s">
-        <v>2</v>
-      </c>
-      <c r="G133" t="s">
         <v>3</v>
       </c>
-      <c r="L133" t="s">
-        <v>468</v>
+      <c r="J133" t="s">
+        <v>465</v>
+      </c>
+      <c r="M133" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>269</v>
-      </c>
-      <c r="C134" t="s">
-        <v>38</v>
-      </c>
-      <c r="E134">
-        <v>0.99</v>
-      </c>
-      <c r="L134" t="s">
-        <v>468</v>
+        <v>268</v>
+      </c>
+      <c r="B134" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134">
+        <v>0.99</v>
+      </c>
+      <c r="J134" t="s">
+        <v>465</v>
+      </c>
+      <c r="M134" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>270</v>
-      </c>
-      <c r="C135" t="s">
-        <v>38</v>
-      </c>
-      <c r="E135">
-        <v>0.99</v>
-      </c>
-      <c r="L135" t="s">
-        <v>468</v>
+        <v>269</v>
+      </c>
+      <c r="B135" t="s">
+        <v>37</v>
+      </c>
+      <c r="D135">
+        <v>0.99</v>
+      </c>
+      <c r="J135" t="s">
+        <v>465</v>
+      </c>
+      <c r="M135" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -5517,830 +5666,761 @@
       <c r="C136" t="s">
         <v>6</v>
       </c>
-      <c r="D136" t="s">
-        <v>7</v>
-      </c>
-      <c r="E136">
-        <v>0.99</v>
+      <c r="D136">
+        <v>0.99</v>
+      </c>
+      <c r="E136" t="s">
+        <v>55</v>
       </c>
       <c r="F136" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G136" t="s">
-        <v>3</v>
+        <v>271</v>
       </c>
       <c r="H136" t="s">
         <v>1</v>
       </c>
-      <c r="I136" t="s">
-        <v>272</v>
-      </c>
-      <c r="J136" t="s">
-        <v>1</v>
-      </c>
-      <c r="M136" s="3" t="s">
-        <v>522</v>
+      <c r="K136" s="3" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>273</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1</v>
+        <v>272</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>2</v>
-      </c>
-      <c r="G137" t="s">
         <v>3</v>
       </c>
-      <c r="L137" t="s">
-        <v>468</v>
+      <c r="J137" t="s">
+        <v>465</v>
+      </c>
+      <c r="M137" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>274</v>
-      </c>
-      <c r="C138" t="s">
-        <v>38</v>
-      </c>
-      <c r="E138">
-        <v>0.99</v>
-      </c>
-      <c r="L138" t="s">
-        <v>468</v>
+        <v>273</v>
+      </c>
+      <c r="B138" t="s">
+        <v>37</v>
+      </c>
+      <c r="D138">
+        <v>0.99</v>
+      </c>
+      <c r="J138" t="s">
+        <v>465</v>
+      </c>
+      <c r="M138" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>275</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1</v>
+        <v>274</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>2</v>
-      </c>
-      <c r="G139" t="s">
         <v>3</v>
       </c>
-      <c r="K139" t="s">
-        <v>457</v>
-      </c>
-      <c r="M139" s="3" t="s">
-        <v>523</v>
+      <c r="I139" t="s">
+        <v>454</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C140" t="s">
         <v>126</v>
       </c>
-      <c r="D140" t="s">
-        <v>127</v>
-      </c>
-      <c r="E140">
-        <v>0.99</v>
+      <c r="D140">
+        <v>0.99</v>
+      </c>
+      <c r="E140" t="s">
+        <v>79</v>
       </c>
       <c r="F140" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="G140" t="s">
         <v>277</v>
       </c>
-      <c r="H140" t="s">
-        <v>1</v>
-      </c>
       <c r="I140" t="s">
-        <v>278</v>
-      </c>
-      <c r="K140" t="s">
-        <v>457</v>
-      </c>
-      <c r="M140" s="3" t="s">
-        <v>524</v>
+        <v>454</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>279</v>
-      </c>
-      <c r="C141" t="s">
-        <v>38</v>
-      </c>
-      <c r="E141">
-        <v>0.99</v>
-      </c>
-      <c r="K141" t="s">
-        <v>457</v>
-      </c>
-      <c r="M141" s="3" t="s">
-        <v>525</v>
+        <v>278</v>
+      </c>
+      <c r="B141" t="s">
+        <v>37</v>
+      </c>
+      <c r="D141">
+        <v>0.99</v>
+      </c>
+      <c r="I141" t="s">
+        <v>454</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" t="s">
         <v>280</v>
-      </c>
-      <c r="B142" t="s">
-        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>281</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142">
+        <v>0.99</v>
+      </c>
+      <c r="E142" t="s">
         <v>282</v>
       </c>
-      <c r="E142">
-        <v>0.99</v>
-      </c>
       <c r="F142" t="s">
+        <v>211</v>
+      </c>
+      <c r="G142" t="s">
         <v>283</v>
       </c>
-      <c r="G142" t="s">
-        <v>212</v>
-      </c>
       <c r="H142" t="s">
         <v>1</v>
       </c>
-      <c r="I142" t="s">
-        <v>284</v>
-      </c>
-      <c r="J142" t="s">
-        <v>1</v>
+      <c r="K142" s="3" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C143" t="s">
         <v>126</v>
       </c>
-      <c r="D143" t="s">
-        <v>127</v>
-      </c>
-      <c r="E143">
-        <v>0.99</v>
+      <c r="D143">
+        <v>0.99</v>
+      </c>
+      <c r="E143" t="s">
+        <v>99</v>
       </c>
       <c r="F143" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="G143" t="s">
-        <v>212</v>
-      </c>
-      <c r="H143" t="s">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="I143" t="s">
-        <v>286</v>
-      </c>
-      <c r="K143" t="s">
-        <v>457</v>
-      </c>
-      <c r="M143" s="3" t="s">
-        <v>526</v>
+        <v>454</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C144" t="s">
         <v>126</v>
       </c>
-      <c r="D144" t="s">
-        <v>127</v>
-      </c>
-      <c r="E144">
-        <v>0.99</v>
+      <c r="D144">
+        <v>0.99</v>
+      </c>
+      <c r="E144" t="s">
+        <v>287</v>
       </c>
       <c r="F144" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" t="s">
         <v>288</v>
       </c>
-      <c r="G144" t="s">
-        <v>35</v>
-      </c>
-      <c r="H144" t="s">
-        <v>1</v>
-      </c>
       <c r="I144" t="s">
-        <v>289</v>
-      </c>
-      <c r="K144" t="s">
-        <v>457</v>
-      </c>
-      <c r="M144" s="3" t="s">
-        <v>527</v>
+        <v>454</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C145" t="s">
         <v>44</v>
       </c>
-      <c r="D145" t="s">
-        <v>45</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>55</v>
       </c>
       <c r="F145" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>3</v>
+        <v>290</v>
       </c>
       <c r="H145" t="s">
         <v>1</v>
       </c>
-      <c r="I145" t="s">
-        <v>291</v>
-      </c>
-      <c r="J145" t="s">
-        <v>1</v>
+      <c r="L145" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C146" t="s">
         <v>44</v>
       </c>
-      <c r="D146" t="s">
-        <v>45</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>55</v>
       </c>
       <c r="F146" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G146" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="H146" t="s">
         <v>1</v>
       </c>
-      <c r="I146" t="s">
-        <v>293</v>
-      </c>
-      <c r="J146" t="s">
-        <v>1</v>
+      <c r="L146" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C147" t="s">
         <v>44</v>
       </c>
-      <c r="D147" t="s">
-        <v>45</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>55</v>
       </c>
       <c r="F147" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G147" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="H147" t="s">
         <v>1</v>
       </c>
-      <c r="I147" t="s">
-        <v>179</v>
-      </c>
-      <c r="J147" t="s">
-        <v>1</v>
+      <c r="L147" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>295</v>
-      </c>
-      <c r="C148" t="s">
-        <v>38</v>
-      </c>
-      <c r="E148">
-        <v>0.99</v>
-      </c>
-      <c r="J148" t="s">
-        <v>1</v>
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148">
+        <v>0.99</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C149" t="s">
         <v>126</v>
       </c>
-      <c r="D149" t="s">
-        <v>127</v>
-      </c>
-      <c r="E149">
-        <v>0.99</v>
+      <c r="D149">
+        <v>0.99</v>
+      </c>
+      <c r="E149" t="s">
+        <v>55</v>
       </c>
       <c r="F149" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>47</v>
-      </c>
-      <c r="H149" t="s">
-        <v>1</v>
+        <v>296</v>
       </c>
       <c r="I149" t="s">
-        <v>297</v>
-      </c>
-      <c r="K149" t="s">
-        <v>457</v>
-      </c>
-      <c r="M149" s="3" t="s">
-        <v>528</v>
+        <v>454</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C150" t="s">
         <v>44</v>
       </c>
-      <c r="D150" t="s">
-        <v>45</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>55</v>
       </c>
       <c r="F150" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G150" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="H150" t="s">
         <v>1</v>
       </c>
-      <c r="I150" t="s">
-        <v>299</v>
-      </c>
-      <c r="J150" t="s">
-        <v>1</v>
+      <c r="L150" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
         <v>44</v>
       </c>
-      <c r="D151" t="s">
-        <v>45</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>55</v>
       </c>
       <c r="F151" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="H151" t="s">
         <v>1</v>
       </c>
-      <c r="I151" t="s">
-        <v>301</v>
-      </c>
-      <c r="J151" t="s">
-        <v>1</v>
+      <c r="L151" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C152" t="s">
         <v>44</v>
       </c>
-      <c r="D152" t="s">
-        <v>45</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>55</v>
       </c>
       <c r="F152" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G152" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="H152" t="s">
         <v>1</v>
       </c>
-      <c r="I152" t="s">
-        <v>179</v>
-      </c>
-      <c r="J152" t="s">
-        <v>1</v>
+      <c r="L152" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C153" t="s">
         <v>44</v>
       </c>
-      <c r="D153" t="s">
-        <v>45</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>55</v>
       </c>
       <c r="F153" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G153" t="s">
-        <v>3</v>
+        <v>302</v>
       </c>
       <c r="H153" t="s">
         <v>1</v>
       </c>
-      <c r="I153" t="s">
-        <v>303</v>
-      </c>
-      <c r="J153" t="s">
-        <v>1</v>
+      <c r="L153" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C154" t="s">
         <v>70</v>
       </c>
-      <c r="D154" t="s">
-        <v>71</v>
-      </c>
-      <c r="E154">
-        <v>0.99</v>
+      <c r="D154">
+        <v>0.99</v>
+      </c>
+      <c r="E154" t="s">
+        <v>55</v>
       </c>
       <c r="F154" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>47</v>
-      </c>
-      <c r="H154" t="s">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="I154" t="s">
-        <v>304</v>
-      </c>
-      <c r="K154" t="s">
-        <v>457</v>
-      </c>
-      <c r="M154" s="3" t="s">
-        <v>529</v>
+        <v>454</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>305</v>
-      </c>
-      <c r="C155" t="s">
-        <v>38</v>
-      </c>
-      <c r="E155">
-        <v>0.99</v>
-      </c>
-      <c r="J155" t="s">
-        <v>1</v>
-      </c>
-      <c r="M155" s="3" t="s">
-        <v>530</v>
+        <v>304</v>
+      </c>
+      <c r="B155" t="s">
+        <v>37</v>
+      </c>
+      <c r="D155">
+        <v>0.99</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C156" t="s">
         <v>126</v>
       </c>
-      <c r="D156" t="s">
-        <v>127</v>
-      </c>
-      <c r="E156">
-        <v>0.99</v>
+      <c r="D156">
+        <v>0.99</v>
+      </c>
+      <c r="E156" t="s">
+        <v>103</v>
       </c>
       <c r="F156" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="G156" t="s">
-        <v>212</v>
-      </c>
-      <c r="H156" t="s">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="I156" t="s">
-        <v>307</v>
-      </c>
-      <c r="K156" t="s">
-        <v>457</v>
-      </c>
-      <c r="M156" s="3" t="s">
-        <v>531</v>
+        <v>454</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" t="s">
         <v>308</v>
-      </c>
-      <c r="B157" t="s">
-        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>309</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157">
+        <v>0.99</v>
+      </c>
+      <c r="E157" t="s">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>3</v>
+      </c>
+      <c r="G157" t="s">
         <v>310</v>
       </c>
-      <c r="E157">
-        <v>0.99</v>
-      </c>
-      <c r="F157" t="s">
-        <v>2</v>
-      </c>
-      <c r="G157" t="s">
-        <v>3</v>
-      </c>
-      <c r="H157" t="s">
-        <v>1</v>
-      </c>
-      <c r="I157" t="s">
-        <v>311</v>
-      </c>
-      <c r="L157" t="s">
-        <v>468</v>
+      <c r="J157" t="s">
+        <v>465</v>
+      </c>
+      <c r="M157" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>308</v>
       </c>
       <c r="C158" t="s">
         <v>309</v>
       </c>
-      <c r="D158" t="s">
-        <v>310</v>
-      </c>
-      <c r="E158">
-        <v>0.99</v>
+      <c r="D158">
+        <v>0.99</v>
+      </c>
+      <c r="E158" t="s">
+        <v>2</v>
       </c>
       <c r="F158" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G158" t="s">
-        <v>3</v>
-      </c>
-      <c r="H158" t="s">
-        <v>1</v>
-      </c>
-      <c r="I158" t="s">
-        <v>313</v>
-      </c>
-      <c r="L158" t="s">
-        <v>468</v>
+        <v>312</v>
+      </c>
+      <c r="J158" t="s">
+        <v>465</v>
+      </c>
+      <c r="M158" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" t="s">
         <v>314</v>
-      </c>
-      <c r="B159" t="s">
-        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>315</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159">
+        <v>0.99</v>
+      </c>
+      <c r="E159" t="s">
+        <v>55</v>
+      </c>
+      <c r="F159" t="s">
+        <v>3</v>
+      </c>
+      <c r="G159" t="s">
         <v>316</v>
       </c>
-      <c r="E159">
-        <v>0.99</v>
-      </c>
-      <c r="F159" t="s">
-        <v>56</v>
-      </c>
-      <c r="G159" t="s">
-        <v>3</v>
-      </c>
-      <c r="H159" t="s">
-        <v>1</v>
-      </c>
-      <c r="I159" t="s">
-        <v>317</v>
-      </c>
-      <c r="L159" t="s">
-        <v>468</v>
+      <c r="J159" t="s">
+        <v>465</v>
+      </c>
+      <c r="M159" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" t="s">
         <v>318</v>
-      </c>
-      <c r="B160" t="s">
-        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>319</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160">
+        <v>0.99</v>
+      </c>
+      <c r="E160" t="s">
+        <v>52</v>
+      </c>
+      <c r="F160" t="s">
+        <v>40</v>
+      </c>
+      <c r="G160" t="s">
         <v>320</v>
       </c>
-      <c r="E160">
-        <v>0.99</v>
-      </c>
-      <c r="F160" t="s">
-        <v>53</v>
-      </c>
-      <c r="G160" t="s">
-        <v>41</v>
-      </c>
-      <c r="H160" t="s">
-        <v>1</v>
-      </c>
-      <c r="I160" t="s">
-        <v>321</v>
-      </c>
-      <c r="L160" t="s">
-        <v>468</v>
+      <c r="J160" t="s">
+        <v>465</v>
+      </c>
+      <c r="M160" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>322</v>
-      </c>
-      <c r="C161" t="s">
-        <v>38</v>
-      </c>
-      <c r="E161">
-        <v>0.99</v>
-      </c>
-      <c r="L161" t="s">
-        <v>468</v>
+        <v>321</v>
+      </c>
+      <c r="B161" t="s">
+        <v>37</v>
+      </c>
+      <c r="D161">
+        <v>0.99</v>
+      </c>
+      <c r="J161" t="s">
+        <v>465</v>
+      </c>
+      <c r="M161" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" t="s">
         <v>323</v>
-      </c>
-      <c r="B162" t="s">
-        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>324</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162">
+        <v>0.99</v>
+      </c>
+      <c r="E162" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162" t="s">
+        <v>3</v>
+      </c>
+      <c r="G162" t="s">
         <v>325</v>
       </c>
-      <c r="E162">
-        <v>0.99</v>
-      </c>
-      <c r="F162" t="s">
-        <v>2</v>
-      </c>
-      <c r="G162" t="s">
-        <v>3</v>
-      </c>
-      <c r="H162" t="s">
-        <v>1</v>
-      </c>
-      <c r="I162" t="s">
-        <v>326</v>
-      </c>
-      <c r="L162" t="s">
-        <v>468</v>
+      <c r="J162" t="s">
+        <v>465</v>
+      </c>
+      <c r="M162" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>327</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1</v>
+        <v>326</v>
+      </c>
+      <c r="E163" t="s">
+        <v>2</v>
       </c>
       <c r="F163" t="s">
-        <v>2</v>
-      </c>
-      <c r="G163" t="s">
         <v>3</v>
       </c>
-      <c r="L163" t="s">
-        <v>468</v>
+      <c r="J163" t="s">
+        <v>465</v>
+      </c>
+      <c r="M163" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>328</v>
-      </c>
-      <c r="C164" t="s">
-        <v>38</v>
-      </c>
-      <c r="E164">
-        <v>0.99</v>
-      </c>
-      <c r="L164" t="s">
-        <v>468</v>
+        <v>327</v>
+      </c>
+      <c r="B164" t="s">
+        <v>37</v>
+      </c>
+      <c r="D164">
+        <v>0.99</v>
+      </c>
+      <c r="J164" t="s">
+        <v>465</v>
+      </c>
+      <c r="M164" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>329</v>
-      </c>
-      <c r="C165" t="s">
-        <v>38</v>
-      </c>
-      <c r="E165">
-        <v>0.99</v>
-      </c>
-      <c r="L165" t="s">
-        <v>468</v>
+        <v>328</v>
+      </c>
+      <c r="B165" t="s">
+        <v>37</v>
+      </c>
+      <c r="D165">
+        <v>0.99</v>
+      </c>
+      <c r="J165" t="s">
+        <v>465</v>
+      </c>
+      <c r="M165" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C166" t="s">
         <v>126</v>
       </c>
-      <c r="D166" t="s">
-        <v>127</v>
-      </c>
-      <c r="E166">
-        <v>0.99</v>
+      <c r="D166">
+        <v>0.99</v>
+      </c>
+      <c r="E166" t="s">
+        <v>330</v>
       </c>
       <c r="F166" t="s">
         <v>331</v>
@@ -6348,205 +6428,178 @@
       <c r="G166" t="s">
         <v>332</v>
       </c>
-      <c r="H166" t="s">
-        <v>1</v>
-      </c>
-      <c r="I166" t="s">
-        <v>333</v>
-      </c>
-      <c r="L166" t="s">
-        <v>468</v>
+      <c r="J166" t="s">
+        <v>465</v>
+      </c>
+      <c r="M166" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>334</v>
-      </c>
-      <c r="C167" t="s">
-        <v>38</v>
-      </c>
-      <c r="E167">
-        <v>0.99</v>
-      </c>
-      <c r="J167" t="s">
-        <v>1</v>
-      </c>
-      <c r="M167" s="3" t="s">
-        <v>532</v>
+        <v>333</v>
+      </c>
+      <c r="B167" t="s">
+        <v>37</v>
+      </c>
+      <c r="D167">
+        <v>0.99</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
       </c>
-      <c r="D168" t="s">
-        <v>29</v>
-      </c>
-      <c r="E168">
-        <v>0.99</v>
+      <c r="D168">
+        <v>0.99</v>
+      </c>
+      <c r="E168" t="s">
+        <v>335</v>
       </c>
       <c r="F168" t="s">
+        <v>40</v>
+      </c>
+      <c r="G168" t="s">
         <v>336</v>
       </c>
-      <c r="G168" t="s">
-        <v>41</v>
-      </c>
       <c r="H168" t="s">
         <v>1</v>
       </c>
-      <c r="I168" t="s">
-        <v>337</v>
-      </c>
-      <c r="J168" t="s">
-        <v>1</v>
-      </c>
-      <c r="M168" s="3" t="s">
-        <v>533</v>
+      <c r="K168" s="3" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C169" t="s">
         <v>44</v>
       </c>
-      <c r="D169" t="s">
-        <v>45</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>167</v>
       </c>
       <c r="F169" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>47</v>
+        <v>338</v>
       </c>
       <c r="H169" t="s">
         <v>1</v>
       </c>
-      <c r="I169" t="s">
-        <v>339</v>
-      </c>
-      <c r="J169" t="s">
-        <v>1</v>
+      <c r="L169" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="C170" t="s">
         <v>188</v>
       </c>
-      <c r="D170" t="s">
-        <v>189</v>
-      </c>
-      <c r="E170">
-        <v>0.99</v>
+      <c r="D170">
+        <v>0.99</v>
+      </c>
+      <c r="E170" t="s">
+        <v>2</v>
       </c>
       <c r="F170" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G170" t="s">
-        <v>3</v>
+        <v>340</v>
       </c>
       <c r="H170" t="s">
         <v>1</v>
       </c>
-      <c r="I170" t="s">
-        <v>341</v>
-      </c>
-      <c r="J170" t="s">
-        <v>1</v>
-      </c>
-      <c r="M170" s="3" t="s">
-        <v>534</v>
+      <c r="K170" s="3" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>342</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1</v>
+        <v>341</v>
+      </c>
+      <c r="E171" t="s">
+        <v>2</v>
       </c>
       <c r="F171" t="s">
-        <v>2</v>
-      </c>
-      <c r="G171" t="s">
         <v>3</v>
       </c>
-      <c r="J171" t="s">
-        <v>1</v>
-      </c>
-      <c r="M171" s="3" t="s">
-        <v>535</v>
+      <c r="H171" t="s">
+        <v>1</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" t="s">
         <v>343</v>
       </c>
-      <c r="B172" t="s">
-        <v>5</v>
-      </c>
       <c r="C172" t="s">
-        <v>344</v>
-      </c>
-      <c r="D172" t="s">
-        <v>282</v>
-      </c>
-      <c r="E172">
-        <v>0.99</v>
+        <v>281</v>
+      </c>
+      <c r="D172">
+        <v>0.99</v>
+      </c>
+      <c r="E172" t="s">
+        <v>107</v>
       </c>
       <c r="F172" t="s">
         <v>108</v>
       </c>
       <c r="G172" t="s">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="H172" t="s">
         <v>1</v>
       </c>
-      <c r="I172" t="s">
-        <v>345</v>
-      </c>
-      <c r="J172" t="s">
-        <v>1</v>
-      </c>
-      <c r="M172" s="3" t="s">
-        <v>536</v>
+      <c r="K172" s="3" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
       </c>
-      <c r="D173" t="s">
-        <v>29</v>
-      </c>
-      <c r="E173">
-        <v>0.99</v>
+      <c r="D173">
+        <v>0.99</v>
+      </c>
+      <c r="E173" t="s">
+        <v>346</v>
       </c>
       <c r="F173" t="s">
         <v>347</v>
@@ -6557,231 +6610,204 @@
       <c r="H173" t="s">
         <v>1</v>
       </c>
-      <c r="I173" t="s">
-        <v>349</v>
-      </c>
-      <c r="J173" t="s">
-        <v>1</v>
-      </c>
-      <c r="M173" s="3" t="s">
-        <v>537</v>
+      <c r="K173" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
       </c>
-      <c r="D174" t="s">
-        <v>29</v>
-      </c>
-      <c r="E174">
-        <v>0.99</v>
+      <c r="D174">
+        <v>0.99</v>
+      </c>
+      <c r="E174" t="s">
+        <v>350</v>
       </c>
       <c r="F174" t="s">
+        <v>30</v>
+      </c>
+      <c r="G174" t="s">
         <v>351</v>
       </c>
-      <c r="G174" t="s">
-        <v>31</v>
-      </c>
       <c r="H174" t="s">
         <v>1</v>
       </c>
-      <c r="I174" t="s">
-        <v>352</v>
-      </c>
-      <c r="J174" t="s">
-        <v>1</v>
-      </c>
-      <c r="M174" s="3" t="s">
-        <v>538</v>
+      <c r="K174" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C175" t="s">
         <v>44</v>
       </c>
-      <c r="D175" t="s">
-        <v>45</v>
-      </c>
-      <c r="E175">
-        <v>1</v>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>55</v>
       </c>
       <c r="F175" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G175" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="H175" t="s">
         <v>1</v>
       </c>
-      <c r="I175" t="s">
-        <v>354</v>
-      </c>
-      <c r="J175" t="s">
-        <v>1</v>
+      <c r="L175" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
       </c>
-      <c r="D176" t="s">
-        <v>29</v>
-      </c>
-      <c r="E176">
-        <v>0.99</v>
+      <c r="D176">
+        <v>0.99</v>
+      </c>
+      <c r="E176" t="s">
+        <v>49</v>
       </c>
       <c r="F176" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G176" t="s">
-        <v>3</v>
+        <v>355</v>
       </c>
       <c r="H176" t="s">
         <v>1</v>
       </c>
-      <c r="I176" t="s">
+      <c r="K176" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>356</v>
       </c>
-      <c r="J176" t="s">
-        <v>1</v>
-      </c>
-      <c r="M176" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="B177" t="s">
+        <v>37</v>
+      </c>
+      <c r="D177">
+        <v>0.99</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>357</v>
       </c>
-      <c r="C177" t="s">
-        <v>38</v>
-      </c>
-      <c r="E177">
-        <v>0.99</v>
-      </c>
-      <c r="J177" t="s">
-        <v>1</v>
-      </c>
-      <c r="M177" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>358</v>
-      </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="C178" t="s">
         <v>188</v>
       </c>
-      <c r="D178" t="s">
-        <v>189</v>
-      </c>
-      <c r="E178">
-        <v>0.99</v>
+      <c r="D178">
+        <v>0.99</v>
+      </c>
+      <c r="E178" t="s">
+        <v>2</v>
       </c>
       <c r="F178" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>3</v>
+        <v>358</v>
       </c>
       <c r="H178" t="s">
         <v>1</v>
       </c>
-      <c r="I178" t="s">
+      <c r="L178" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>359</v>
       </c>
-      <c r="J178" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+      <c r="B179" t="s">
+        <v>37</v>
+      </c>
+      <c r="D179">
+        <v>0.99</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1</v>
+      </c>
+      <c r="L179" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>360</v>
       </c>
-      <c r="C179" t="s">
-        <v>38</v>
-      </c>
-      <c r="E179">
-        <v>0.99</v>
-      </c>
-      <c r="J179" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>361</v>
-      </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
       </c>
-      <c r="D180" t="s">
-        <v>29</v>
-      </c>
-      <c r="E180">
-        <v>0.99</v>
+      <c r="D180">
+        <v>0.99</v>
+      </c>
+      <c r="E180" t="s">
+        <v>361</v>
       </c>
       <c r="F180" t="s">
+        <v>347</v>
+      </c>
+      <c r="G180" t="s">
         <v>362</v>
       </c>
-      <c r="G180" t="s">
-        <v>348</v>
-      </c>
       <c r="H180" t="s">
         <v>1</v>
       </c>
-      <c r="I180" t="s">
+      <c r="K180" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>363</v>
       </c>
-      <c r="J180" t="s">
-        <v>1</v>
-      </c>
-      <c r="M180" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>364</v>
-      </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C181" t="s">
         <v>44</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
         <v>45</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
       </c>
       <c r="F181" t="s">
         <v>46</v>
@@ -6792,16 +6818,13 @@
       <c r="H181" t="s">
         <v>1</v>
       </c>
-      <c r="I181" t="s">
-        <v>48</v>
-      </c>
-      <c r="J181" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L181" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -6809,11 +6832,11 @@
       <c r="C182" t="s">
         <v>6</v>
       </c>
-      <c r="D182" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182">
-        <v>0.99</v>
+      <c r="D182">
+        <v>0.99</v>
+      </c>
+      <c r="E182" t="s">
+        <v>365</v>
       </c>
       <c r="F182" t="s">
         <v>366</v>
@@ -6821,104 +6844,86 @@
       <c r="G182" t="s">
         <v>367</v>
       </c>
-      <c r="H182" t="s">
-        <v>1</v>
-      </c>
       <c r="I182" t="s">
+        <v>466</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>368</v>
       </c>
-      <c r="K182" t="s">
-        <v>469</v>
-      </c>
-      <c r="M182" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>369</v>
-      </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
       </c>
-      <c r="D183" t="s">
-        <v>29</v>
-      </c>
-      <c r="E183">
-        <v>0.99</v>
+      <c r="D183">
+        <v>0.99</v>
+      </c>
+      <c r="E183" t="s">
+        <v>369</v>
       </c>
       <c r="F183" t="s">
+        <v>276</v>
+      </c>
+      <c r="G183" t="s">
         <v>370</v>
       </c>
-      <c r="G183" t="s">
-        <v>277</v>
-      </c>
       <c r="H183" t="s">
         <v>1</v>
       </c>
-      <c r="I183" t="s">
+      <c r="K183" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>371</v>
       </c>
-      <c r="J183" t="s">
-        <v>1</v>
-      </c>
-      <c r="M183" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>372</v>
-      </c>
       <c r="B184" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
       </c>
-      <c r="D184" t="s">
-        <v>29</v>
-      </c>
-      <c r="E184">
-        <v>0.99</v>
+      <c r="D184">
+        <v>0.99</v>
+      </c>
+      <c r="E184" t="s">
+        <v>372</v>
       </c>
       <c r="F184" t="s">
+        <v>347</v>
+      </c>
+      <c r="G184" t="s">
         <v>373</v>
       </c>
-      <c r="G184" t="s">
-        <v>348</v>
-      </c>
       <c r="H184" t="s">
         <v>1</v>
       </c>
-      <c r="I184" t="s">
+      <c r="K184" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>374</v>
       </c>
-      <c r="J184" t="s">
-        <v>1</v>
-      </c>
-      <c r="M184" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>375</v>
-      </c>
       <c r="B185" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
       </c>
-      <c r="D185" t="s">
-        <v>29</v>
-      </c>
-      <c r="E185">
-        <v>0.99</v>
+      <c r="D185">
+        <v>0.99</v>
+      </c>
+      <c r="E185" t="s">
+        <v>375</v>
       </c>
       <c r="F185" t="s">
         <v>376</v>
@@ -6929,332 +6934,296 @@
       <c r="H185" t="s">
         <v>1</v>
       </c>
-      <c r="I185" t="s">
+      <c r="K185" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>378</v>
       </c>
-      <c r="J185" t="s">
-        <v>1</v>
-      </c>
-      <c r="M185" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>379</v>
-      </c>
       <c r="B186" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
       </c>
-      <c r="D186" t="s">
-        <v>29</v>
-      </c>
-      <c r="E186">
-        <v>0.99</v>
+      <c r="D186">
+        <v>0.99</v>
+      </c>
+      <c r="E186" t="s">
+        <v>379</v>
       </c>
       <c r="F186" t="s">
+        <v>276</v>
+      </c>
+      <c r="G186" t="s">
         <v>380</v>
       </c>
-      <c r="G186" t="s">
-        <v>277</v>
-      </c>
       <c r="H186" t="s">
         <v>1</v>
       </c>
-      <c r="I186" t="s">
+      <c r="K186" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>381</v>
       </c>
-      <c r="J186" t="s">
-        <v>1</v>
-      </c>
-      <c r="M186" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>382</v>
-      </c>
       <c r="B187" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
       </c>
-      <c r="D187" t="s">
-        <v>29</v>
-      </c>
-      <c r="E187">
-        <v>0.99</v>
+      <c r="D187">
+        <v>0.99</v>
+      </c>
+      <c r="E187" t="s">
+        <v>382</v>
       </c>
       <c r="F187" t="s">
+        <v>331</v>
+      </c>
+      <c r="G187" t="s">
         <v>383</v>
       </c>
-      <c r="G187" t="s">
-        <v>332</v>
-      </c>
       <c r="H187" t="s">
         <v>1</v>
       </c>
-      <c r="I187" t="s">
+      <c r="K187" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>384</v>
       </c>
-      <c r="J187" t="s">
-        <v>1</v>
-      </c>
-      <c r="M187" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>385</v>
-      </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C188" t="s">
         <v>44</v>
       </c>
-      <c r="D188" t="s">
-        <v>45</v>
-      </c>
-      <c r="E188">
-        <v>1</v>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>2</v>
       </c>
       <c r="F188" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G188" t="s">
-        <v>3</v>
+        <v>385</v>
       </c>
       <c r="H188" t="s">
         <v>1</v>
       </c>
-      <c r="I188" t="s">
-        <v>386</v>
-      </c>
-      <c r="J188" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L188" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C189" t="s">
         <v>44</v>
       </c>
-      <c r="D189" t="s">
-        <v>45</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>55</v>
       </c>
       <c r="F189" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>3</v>
+        <v>302</v>
       </c>
       <c r="H189" t="s">
         <v>1</v>
       </c>
-      <c r="I189" t="s">
-        <v>303</v>
-      </c>
-      <c r="J189" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L189" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C190" t="s">
         <v>44</v>
       </c>
-      <c r="D190" t="s">
-        <v>45</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>79</v>
       </c>
       <c r="F190" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>3</v>
+        <v>387</v>
       </c>
       <c r="H190" t="s">
         <v>1</v>
       </c>
-      <c r="I190" t="s">
+      <c r="L190" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>388</v>
       </c>
-      <c r="J190" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>389</v>
-      </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C191" t="s">
         <v>44</v>
       </c>
-      <c r="D191" t="s">
-        <v>45</v>
-      </c>
-      <c r="E191">
-        <v>1</v>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>79</v>
       </c>
       <c r="F191" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G191" t="s">
-        <v>3</v>
+        <v>389</v>
       </c>
       <c r="H191" t="s">
         <v>1</v>
       </c>
-      <c r="I191" t="s">
+      <c r="L191" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>390</v>
       </c>
-      <c r="J191" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="B192" t="s">
+        <v>37</v>
+      </c>
+      <c r="D192">
+        <v>0.99</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>391</v>
       </c>
-      <c r="C192" t="s">
-        <v>38</v>
-      </c>
-      <c r="E192">
-        <v>0.99</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1</v>
-      </c>
-      <c r="M192" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="B193" t="s">
+        <v>37</v>
+      </c>
+      <c r="D193">
+        <v>0.99</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>392</v>
       </c>
-      <c r="C193" t="s">
-        <v>38</v>
-      </c>
-      <c r="E193">
-        <v>0.99</v>
-      </c>
-      <c r="J193" t="s">
-        <v>1</v>
-      </c>
-      <c r="M193" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="B194" t="s">
+        <v>37</v>
+      </c>
+      <c r="D194">
+        <v>0.99</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>393</v>
       </c>
-      <c r="C194" t="s">
-        <v>38</v>
-      </c>
-      <c r="E194">
-        <v>0.99</v>
-      </c>
-      <c r="J194" t="s">
-        <v>1</v>
-      </c>
-      <c r="M194" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>394</v>
-      </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C195" t="s">
         <v>44</v>
       </c>
-      <c r="D195" t="s">
-        <v>45</v>
-      </c>
-      <c r="E195">
-        <v>1</v>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>55</v>
       </c>
       <c r="F195" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G195" t="s">
-        <v>3</v>
+        <v>394</v>
       </c>
       <c r="H195" t="s">
         <v>1</v>
       </c>
-      <c r="I195" t="s">
+      <c r="L195" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>395</v>
       </c>
-      <c r="J195" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>396</v>
-      </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C196" t="s">
         <v>44</v>
       </c>
-      <c r="D196" t="s">
-        <v>45</v>
-      </c>
-      <c r="E196">
-        <v>1</v>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>2</v>
       </c>
       <c r="F196" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>3</v>
+        <v>396</v>
       </c>
       <c r="H196" t="s">
         <v>1</v>
       </c>
-      <c r="I196" t="s">
+      <c r="L196" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>397</v>
-      </c>
-      <c r="J196" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>398</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -7262,34 +7231,28 @@
       <c r="C197" t="s">
         <v>6</v>
       </c>
-      <c r="D197" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197">
-        <v>0.99</v>
+      <c r="D197">
+        <v>0.99</v>
+      </c>
+      <c r="E197" t="s">
+        <v>398</v>
       </c>
       <c r="F197" t="s">
+        <v>40</v>
+      </c>
+      <c r="G197" t="s">
         <v>399</v>
       </c>
-      <c r="G197" t="s">
-        <v>41</v>
-      </c>
       <c r="H197" t="s">
         <v>1</v>
       </c>
-      <c r="I197" t="s">
+      <c r="K197" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>400</v>
-      </c>
-      <c r="J197" t="s">
-        <v>1</v>
-      </c>
-      <c r="M197" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>401</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -7297,89 +7260,74 @@
       <c r="C198" t="s">
         <v>6</v>
       </c>
-      <c r="D198" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198">
-        <v>0.99</v>
+      <c r="D198">
+        <v>0.99</v>
+      </c>
+      <c r="E198" t="s">
+        <v>401</v>
       </c>
       <c r="F198" t="s">
+        <v>108</v>
+      </c>
+      <c r="G198" t="s">
         <v>402</v>
       </c>
-      <c r="G198" t="s">
-        <v>109</v>
-      </c>
       <c r="H198" t="s">
         <v>1</v>
       </c>
-      <c r="I198" t="s">
+      <c r="K198" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>403</v>
       </c>
-      <c r="J198" t="s">
-        <v>1</v>
-      </c>
-      <c r="M198" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>404</v>
-      </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
       </c>
-      <c r="D199" t="s">
-        <v>29</v>
-      </c>
-      <c r="E199">
-        <v>0.99</v>
+      <c r="D199">
+        <v>0.99</v>
+      </c>
+      <c r="E199" t="s">
+        <v>330</v>
       </c>
       <c r="F199" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="G199" t="s">
-        <v>277</v>
+        <v>404</v>
       </c>
       <c r="H199" t="s">
         <v>1</v>
       </c>
-      <c r="I199" t="s">
+      <c r="K199" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>405</v>
       </c>
-      <c r="J199" t="s">
-        <v>1</v>
-      </c>
-      <c r="M199" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>406</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1</v>
+      <c r="E200" t="s">
+        <v>2</v>
       </c>
       <c r="F200" t="s">
-        <v>2</v>
-      </c>
-      <c r="G200" t="s">
         <v>3</v>
       </c>
-      <c r="J200" t="s">
-        <v>1</v>
-      </c>
-      <c r="M200" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H200" t="s">
+        <v>1</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -7387,66 +7335,57 @@
       <c r="C201" t="s">
         <v>6</v>
       </c>
-      <c r="D201" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201">
-        <v>0.99</v>
+      <c r="D201">
+        <v>0.99</v>
+      </c>
+      <c r="E201" t="s">
+        <v>2</v>
       </c>
       <c r="F201" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>3</v>
-      </c>
-      <c r="H201" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="I201" t="s">
+        <v>467</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>407</v>
       </c>
-      <c r="K201" t="s">
-        <v>470</v>
-      </c>
-      <c r="M201" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>408</v>
-      </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C202" t="s">
         <v>44</v>
       </c>
-      <c r="D202" t="s">
-        <v>45</v>
-      </c>
-      <c r="E202">
-        <v>1</v>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202" t="s">
+        <v>79</v>
       </c>
       <c r="F202" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G202" t="s">
-        <v>3</v>
+        <v>408</v>
       </c>
       <c r="H202" t="s">
         <v>1</v>
       </c>
-      <c r="I202" t="s">
+      <c r="L202" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>409</v>
-      </c>
-      <c r="J202" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>410</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -7454,69 +7393,57 @@
       <c r="C203" t="s">
         <v>6</v>
       </c>
-      <c r="D203" t="s">
-        <v>7</v>
-      </c>
-      <c r="E203">
-        <v>0.99</v>
+      <c r="D203">
+        <v>0.99</v>
+      </c>
+      <c r="E203" t="s">
+        <v>45</v>
       </c>
       <c r="F203" t="s">
-        <v>46</v>
+        <v>276</v>
       </c>
       <c r="G203" t="s">
-        <v>277</v>
-      </c>
-      <c r="H203" t="s">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="I203" t="s">
+        <v>452</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>60</v>
+      </c>
+      <c r="B204" t="s">
         <v>411</v>
-      </c>
-      <c r="K203" t="s">
-        <v>455</v>
-      </c>
-      <c r="M203" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>61</v>
-      </c>
-      <c r="B204" t="s">
-        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>412</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204">
+        <v>0.99</v>
+      </c>
+      <c r="E204" t="s">
+        <v>49</v>
+      </c>
+      <c r="F204" t="s">
+        <v>3</v>
+      </c>
+      <c r="G204" t="s">
         <v>413</v>
       </c>
-      <c r="E204">
-        <v>0.99</v>
-      </c>
-      <c r="F204" t="s">
-        <v>50</v>
-      </c>
-      <c r="G204" t="s">
-        <v>3</v>
-      </c>
       <c r="H204" t="s">
         <v>1</v>
       </c>
-      <c r="I204" t="s">
+      <c r="K204" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>414</v>
-      </c>
-      <c r="J204" t="s">
-        <v>1</v>
-      </c>
-      <c r="M204" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>415</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -7524,34 +7451,28 @@
       <c r="C205" t="s">
         <v>6</v>
       </c>
-      <c r="D205" t="s">
-        <v>7</v>
-      </c>
-      <c r="E205">
-        <v>0.99</v>
+      <c r="D205">
+        <v>0.99</v>
+      </c>
+      <c r="E205" t="s">
+        <v>330</v>
       </c>
       <c r="F205" t="s">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
-      </c>
-      <c r="H205" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="I205" t="s">
+        <v>452</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="K205" t="s">
-        <v>455</v>
-      </c>
-      <c r="M205" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A206" s="4" t="s">
-        <v>417</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -7559,34 +7480,28 @@
       <c r="C206" t="s">
         <v>6</v>
       </c>
-      <c r="D206" t="s">
-        <v>7</v>
-      </c>
-      <c r="E206">
-        <v>0.99</v>
+      <c r="D206">
+        <v>0.99</v>
+      </c>
+      <c r="E206" t="s">
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="G206" t="s">
-        <v>109</v>
-      </c>
-      <c r="H206" t="s">
-        <v>1</v>
+        <v>417</v>
       </c>
       <c r="I206" t="s">
+        <v>452</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>418</v>
-      </c>
-      <c r="K206" t="s">
-        <v>455</v>
-      </c>
-      <c r="M206" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>419</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -7594,69 +7509,57 @@
       <c r="C207" t="s">
         <v>6</v>
       </c>
-      <c r="D207" t="s">
-        <v>7</v>
-      </c>
-      <c r="E207">
-        <v>0.99</v>
+      <c r="D207">
+        <v>0.99</v>
+      </c>
+      <c r="E207" t="s">
+        <v>107</v>
       </c>
       <c r="F207" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
-      </c>
-      <c r="H207" t="s">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="I207" t="s">
+        <v>452</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>420</v>
       </c>
-      <c r="K207" t="s">
-        <v>455</v>
-      </c>
-      <c r="M207" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>421</v>
-      </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C208" t="s">
         <v>70</v>
       </c>
-      <c r="D208" t="s">
-        <v>71</v>
-      </c>
-      <c r="E208">
-        <v>0.99</v>
+      <c r="D208">
+        <v>0.99</v>
+      </c>
+      <c r="E208" t="s">
+        <v>79</v>
       </c>
       <c r="F208" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="G208" t="s">
-        <v>277</v>
-      </c>
-      <c r="H208" t="s">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="I208" t="s">
+        <v>454</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>422</v>
-      </c>
-      <c r="K208" t="s">
-        <v>457</v>
-      </c>
-      <c r="M208" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>423</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -7664,278 +7567,248 @@
       <c r="C209" t="s">
         <v>6</v>
       </c>
-      <c r="D209" t="s">
-        <v>7</v>
-      </c>
-      <c r="E209">
-        <v>0.99</v>
+      <c r="D209">
+        <v>0.99</v>
+      </c>
+      <c r="E209" t="s">
+        <v>45</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>276</v>
       </c>
       <c r="G209" t="s">
-        <v>277</v>
-      </c>
-      <c r="H209" t="s">
-        <v>1</v>
+        <v>423</v>
       </c>
       <c r="I209" t="s">
+        <v>452</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>424</v>
       </c>
-      <c r="K209" t="s">
-        <v>455</v>
-      </c>
-      <c r="M209" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>425</v>
-      </c>
-      <c r="C210" t="s">
-        <v>38</v>
-      </c>
-      <c r="E210">
-        <v>0.99</v>
-      </c>
-      <c r="K210" t="s">
-        <v>455</v>
-      </c>
-      <c r="M210" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>37</v>
+      </c>
+      <c r="D210">
+        <v>0.99</v>
+      </c>
+      <c r="I210" t="s">
+        <v>452</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C211" t="s">
         <v>44</v>
       </c>
-      <c r="D211" t="s">
-        <v>45</v>
-      </c>
-      <c r="E211">
-        <v>1</v>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>2</v>
       </c>
       <c r="F211" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G211" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="H211" t="s">
         <v>1</v>
       </c>
-      <c r="I211" t="s">
-        <v>160</v>
-      </c>
-      <c r="J211" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L211" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C212" t="s">
         <v>44</v>
       </c>
-      <c r="D212" t="s">
-        <v>45</v>
-      </c>
-      <c r="E212">
-        <v>1</v>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>55</v>
       </c>
       <c r="F212" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G212" t="s">
-        <v>3</v>
+        <v>426</v>
       </c>
       <c r="H212" t="s">
         <v>1</v>
       </c>
-      <c r="I212" t="s">
+      <c r="L212" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>427</v>
       </c>
-      <c r="J212" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>428</v>
-      </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C213" t="s">
         <v>44</v>
       </c>
-      <c r="D213" t="s">
-        <v>45</v>
-      </c>
-      <c r="E213">
-        <v>1</v>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>55</v>
       </c>
       <c r="F213" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G213" t="s">
-        <v>3</v>
+        <v>428</v>
       </c>
       <c r="H213" t="s">
         <v>1</v>
       </c>
-      <c r="I213" t="s">
+      <c r="L213" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>429</v>
       </c>
-      <c r="J213" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>430</v>
-      </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C214" t="s">
         <v>44</v>
       </c>
-      <c r="D214" t="s">
-        <v>45</v>
-      </c>
-      <c r="E214">
-        <v>1</v>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214" t="s">
+        <v>49</v>
       </c>
       <c r="F214" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G214" t="s">
-        <v>3</v>
+        <v>430</v>
       </c>
       <c r="H214" t="s">
         <v>1</v>
       </c>
-      <c r="I214" t="s">
+      <c r="L214" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>431</v>
       </c>
-      <c r="J214" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>432</v>
-      </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C215" t="s">
         <v>44</v>
       </c>
-      <c r="D215" t="s">
-        <v>45</v>
-      </c>
-      <c r="E215">
-        <v>1</v>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>55</v>
       </c>
       <c r="F215" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G215" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="H215" t="s">
         <v>1</v>
       </c>
-      <c r="I215" t="s">
-        <v>201</v>
-      </c>
-      <c r="J215" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L215" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C216" t="s">
         <v>44</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>55</v>
+      </c>
+      <c r="F216" t="s">
+        <v>3</v>
+      </c>
+      <c r="G216" t="s">
+        <v>176</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1</v>
+      </c>
+      <c r="L216" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217" t="s">
+        <v>567</v>
+      </c>
+      <c r="C217" t="s">
+        <v>70</v>
+      </c>
+      <c r="D217">
+        <v>0.99</v>
+      </c>
+      <c r="E217" t="s">
         <v>45</v>
       </c>
-      <c r="E216">
-        <v>1</v>
-      </c>
-      <c r="F216" t="s">
-        <v>56</v>
-      </c>
-      <c r="G216" t="s">
-        <v>3</v>
-      </c>
-      <c r="H216" t="s">
-        <v>1</v>
-      </c>
-      <c r="I216" t="s">
-        <v>177</v>
-      </c>
-      <c r="J216" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+      <c r="F217" t="s">
+        <v>34</v>
+      </c>
+      <c r="G217" t="s">
         <v>433</v>
       </c>
-      <c r="B217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C217" t="s">
-        <v>570</v>
-      </c>
-      <c r="D217" t="s">
-        <v>71</v>
-      </c>
-      <c r="E217">
-        <v>0.99</v>
-      </c>
-      <c r="F217" t="s">
-        <v>46</v>
-      </c>
-      <c r="G217" t="s">
-        <v>35</v>
-      </c>
-      <c r="H217" t="s">
-        <v>1</v>
-      </c>
       <c r="I217" t="s">
+        <v>454</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A218" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="K217" t="s">
-        <v>457</v>
-      </c>
-      <c r="M217" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A218" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -7943,34 +7816,28 @@
       <c r="C218" t="s">
         <v>6</v>
       </c>
-      <c r="D218" t="s">
-        <v>7</v>
-      </c>
-      <c r="E218">
-        <v>0.99</v>
+      <c r="D218">
+        <v>0.99</v>
+      </c>
+      <c r="E218" t="s">
+        <v>79</v>
       </c>
       <c r="F218" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G218" t="s">
-        <v>47</v>
-      </c>
-      <c r="H218" t="s">
-        <v>1</v>
+        <v>435</v>
       </c>
       <c r="I218" t="s">
+        <v>452</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>436</v>
-      </c>
-      <c r="K218" t="s">
-        <v>455</v>
-      </c>
-      <c r="M218" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>437</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -7978,34 +7845,28 @@
       <c r="C219" t="s">
         <v>6</v>
       </c>
-      <c r="D219" t="s">
-        <v>7</v>
-      </c>
-      <c r="E219">
-        <v>0.99</v>
+      <c r="D219">
+        <v>0.99</v>
+      </c>
+      <c r="E219" t="s">
+        <v>167</v>
       </c>
       <c r="F219" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="G219" t="s">
-        <v>277</v>
-      </c>
-      <c r="H219" t="s">
-        <v>1</v>
+        <v>437</v>
       </c>
       <c r="I219" t="s">
+        <v>452</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>438</v>
-      </c>
-      <c r="K219" t="s">
-        <v>455</v>
-      </c>
-      <c r="M219" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>439</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -8013,34 +7874,28 @@
       <c r="C220" t="s">
         <v>6</v>
       </c>
-      <c r="D220" t="s">
-        <v>7</v>
-      </c>
-      <c r="E220">
-        <v>0.99</v>
+      <c r="D220">
+        <v>0.99</v>
+      </c>
+      <c r="E220" t="s">
+        <v>330</v>
       </c>
       <c r="F220" t="s">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>31</v>
-      </c>
-      <c r="H220" t="s">
-        <v>1</v>
+        <v>439</v>
       </c>
       <c r="I220" t="s">
+        <v>452</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>440</v>
-      </c>
-      <c r="K220" t="s">
-        <v>455</v>
-      </c>
-      <c r="M220" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>441</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -8048,34 +7903,28 @@
       <c r="C221" t="s">
         <v>6</v>
       </c>
-      <c r="D221" t="s">
-        <v>7</v>
-      </c>
-      <c r="E221">
-        <v>0.99</v>
+      <c r="D221">
+        <v>0.99</v>
+      </c>
+      <c r="E221" t="s">
+        <v>2</v>
       </c>
       <c r="F221" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G221" t="s">
-        <v>3</v>
-      </c>
-      <c r="H221" t="s">
-        <v>1</v>
+        <v>441</v>
       </c>
       <c r="I221" t="s">
+        <v>452</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>442</v>
-      </c>
-      <c r="K221" t="s">
-        <v>455</v>
-      </c>
-      <c r="M221" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>443</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -8083,29 +7932,23 @@
       <c r="C222" t="s">
         <v>6</v>
       </c>
-      <c r="D222" t="s">
-        <v>7</v>
-      </c>
-      <c r="E222">
-        <v>0.99</v>
+      <c r="D222">
+        <v>0.99</v>
+      </c>
+      <c r="E222" t="s">
+        <v>2</v>
       </c>
       <c r="F222" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G222" t="s">
-        <v>3</v>
-      </c>
-      <c r="H222" t="s">
-        <v>1</v>
+        <v>443</v>
       </c>
       <c r="I222" t="s">
-        <v>444</v>
-      </c>
-      <c r="K222" t="s">
-        <v>455</v>
-      </c>
-      <c r="M222" s="3" t="s">
-        <v>569</v>
+        <v>452</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/Dateieigenschaften.xlsx
+++ b/Dateieigenschaften.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70C9004-79B2-43CE-B01A-85925DFA7FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE32352-3BE6-4129-8F5C-431100C65DD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{42933F10-E430-4C85-BB5C-A0778057E4E9}"/>
+    <workbookView minimized="1" xWindow="4668" yWindow="4596" windowWidth="17280" windowHeight="9216" xr2:uid="{42933F10-E430-4C85-BB5C-A0778057E4E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="695">
   <si>
     <t>Chassis_V4.0.asm</t>
   </si>
@@ -2107,6 +2107,18 @@
   </si>
   <si>
     <t>NK055</t>
+  </si>
+  <si>
+    <t>Abdeckplatte_Hinten2.par</t>
+  </si>
+  <si>
+    <t>0,076 kg</t>
+  </si>
+  <si>
+    <t>0,028 dm^3</t>
+  </si>
+  <si>
+    <t>20596,49 mm^2</t>
   </si>
 </sst>
 </file>
@@ -2482,10 +2494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31ABC05-1310-40CC-AAF6-8567B020221C}">
-  <dimension ref="A1:M222"/>
+  <dimension ref="A1:M223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="I223" sqref="I223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7951,6 +7963,35 @@
         <v>566</v>
       </c>
     </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>691</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223">
+        <v>0.99</v>
+      </c>
+      <c r="E223" t="s">
+        <v>692</v>
+      </c>
+      <c r="F223" t="s">
+        <v>693</v>
+      </c>
+      <c r="G223" t="s">
+        <v>694</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K223" s="3">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Dateieigenschaften.xlsx
+++ b/Dateieigenschaften.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE32352-3BE6-4129-8F5C-431100C65DD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5288FE8F-676B-435B-91B1-1E8874762E59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4668" yWindow="4596" windowWidth="17280" windowHeight="9216" xr2:uid="{42933F10-E430-4C85-BB5C-A0778057E4E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{42933F10-E430-4C85-BB5C-A0778057E4E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="697">
   <si>
     <t>Chassis_V4.0.asm</t>
   </si>
@@ -2119,6 +2119,12 @@
   </si>
   <si>
     <t>20596,49 mm^2</t>
+  </si>
+  <si>
+    <t>Antennenhülse_top.par</t>
+  </si>
+  <si>
+    <t>302,82 mm^2</t>
   </si>
 </sst>
 </file>
@@ -2494,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31ABC05-1310-40CC-AAF6-8567B020221C}">
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="I223" sqref="I223"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="K139" sqref="K139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7992,6 +7998,35 @@
         <v>101</v>
       </c>
     </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>695</v>
+      </c>
+      <c r="B224" t="s">
+        <v>125</v>
+      </c>
+      <c r="C224" t="s">
+        <v>126</v>
+      </c>
+      <c r="D224">
+        <v>0.99</v>
+      </c>
+      <c r="E224" t="s">
+        <v>2</v>
+      </c>
+      <c r="F224" t="s">
+        <v>3</v>
+      </c>
+      <c r="G224" t="s">
+        <v>696</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="K224" s="3">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
